--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantin\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\parse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{973329F2-6631-4213-AEAD-9464041042F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2623DB66-4876-44CD-A51D-320495B86A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="1008" windowWidth="15816" windowHeight="8232" xr2:uid="{9AEBC8E4-F5BA-4BD4-A5EC-AEF55CC360E4}"/>
+    <workbookView xWindow="12240" yWindow="348" windowWidth="13884" windowHeight="12096" xr2:uid="{9AEBC8E4-F5BA-4BD4-A5EC-AEF55CC360E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="629">
   <si>
     <t>Наименование</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Теплообменник Е-103А</t>
   </si>
   <si>
-    <t>Нефть, диз.топливо _x0007_</t>
-  </si>
-  <si>
     <t xml:space="preserve">Нефть, диз.топливо  </t>
   </si>
   <si>
@@ -162,34 +159,1788 @@
     <t>Теплообменник Е-101А/В</t>
   </si>
   <si>
-    <t>Нефть, газойль _x0007_</t>
-  </si>
-  <si>
     <t>Теплообменник Е-103В</t>
   </si>
   <si>
     <t>Теплообменник Т-120</t>
   </si>
   <si>
-    <t>Бензин _x0007_</t>
-  </si>
-  <si>
-    <t>Нефть _x0007_</t>
-  </si>
-  <si>
-    <t>Бензиновая фракция _x0007_</t>
-  </si>
-  <si>
     <t>Теплообменник Е-100/1</t>
   </si>
   <si>
-    <t>Бензин, у/в газ, вода _x0007_</t>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>7,0</t>
+  </si>
+  <si>
+    <t>Разделитель V-100/1</t>
+  </si>
+  <si>
+    <t>Аппарат V-100/3</t>
+  </si>
+  <si>
+    <t>5,9</t>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>35,8</t>
+  </si>
+  <si>
+    <t>Электродегидратор V-101</t>
+  </si>
+  <si>
+    <t>Разделитель V-100/4</t>
+  </si>
+  <si>
+    <t>1,93</t>
+  </si>
+  <si>
+    <t>Аппарат V-100/5</t>
+  </si>
+  <si>
+    <t>1,44</t>
+  </si>
+  <si>
+    <t>2,43</t>
+  </si>
+  <si>
+    <t>Сборник V-102</t>
+  </si>
+  <si>
+    <t>0,035</t>
+  </si>
+  <si>
+    <t>2,68</t>
+  </si>
+  <si>
+    <t>0,021</t>
+  </si>
+  <si>
+    <t>2,7</t>
+  </si>
+  <si>
+    <t>Емкость V-103</t>
+  </si>
+  <si>
+    <t>100/100</t>
+  </si>
+  <si>
+    <t>Углеводороды, вода</t>
+  </si>
+  <si>
+    <t>Теплообменник Е-110</t>
+  </si>
+  <si>
+    <t>177/93</t>
+  </si>
+  <si>
+    <t>0,22/0,07</t>
+  </si>
+  <si>
+    <t>0,005</t>
+  </si>
+  <si>
+    <t>Теплообменник Е-112</t>
+  </si>
+  <si>
+    <t>Газойль</t>
+  </si>
+  <si>
+    <t>204/300</t>
+  </si>
+  <si>
+    <t>0,45/0,77</t>
+  </si>
+  <si>
+    <t>1,08</t>
+  </si>
+  <si>
+    <t>Теплообменник Е-113</t>
+  </si>
+  <si>
+    <t>0,43/0,77</t>
+  </si>
+  <si>
+    <t>1,48</t>
+  </si>
+  <si>
+    <t>Колонна Т-102</t>
+  </si>
+  <si>
+    <t>Диз.топливо, водяной пар</t>
+  </si>
+  <si>
+    <t>0,07</t>
+  </si>
+  <si>
+    <t>Колонна Т-104</t>
+  </si>
+  <si>
+    <t>63,05</t>
+  </si>
+  <si>
+    <t>АВО АС-108 А</t>
+  </si>
+  <si>
+    <t>76,9</t>
+  </si>
+  <si>
+    <t>0,64</t>
+  </si>
+  <si>
+    <t>0,099</t>
+  </si>
+  <si>
+    <t>АВО АС-108 В</t>
+  </si>
+  <si>
+    <t>0,42</t>
+  </si>
+  <si>
+    <t>0,057</t>
+  </si>
+  <si>
+    <t>АВО АС-109</t>
+  </si>
+  <si>
+    <t>0,35</t>
+  </si>
+  <si>
+    <t>0,381</t>
+  </si>
+  <si>
+    <t>АВО АС-100/1</t>
+  </si>
+  <si>
+    <t>1,6</t>
+  </si>
+  <si>
+    <t>0,236</t>
+  </si>
+  <si>
+    <t>АВО АС-100/2</t>
+  </si>
+  <si>
+    <t>0,129</t>
+  </si>
+  <si>
+    <t>Емкость V-120</t>
+  </si>
+  <si>
+    <t>Щелочь</t>
+  </si>
+  <si>
+    <t>Емкость V-121</t>
+  </si>
+  <si>
+    <t>Емкость V-122</t>
+  </si>
+  <si>
+    <t>Насос дозировочный НД-2</t>
+  </si>
+  <si>
+    <t>Насос дозировочный НД-3</t>
+  </si>
+  <si>
+    <t>Насос дозировочный НД-4</t>
+  </si>
+  <si>
+    <t>Насос дозировочный НД-5</t>
+  </si>
+  <si>
+    <t>Насос дозировочный НД-6</t>
+  </si>
+  <si>
+    <t>Насос дозировочный НД-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бензин  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бензин, углеводородные газы  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Диз.топливо  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бензин, вода  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Углеводородные газы, вода  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нефть, вода  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бензин, щёлочь  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бензин, у/в газ  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бензин, у/в газ, вода  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бензиновая фракция  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нефть  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нефть, газойль  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Углеводородный конденсат, углеводородный газ  </t>
+  </si>
+  <si>
+    <t>Ингибитор</t>
+  </si>
+  <si>
+    <t>0,00007</t>
+  </si>
+  <si>
+    <t>Демульгатор_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>2,0</t>
+  </si>
+  <si>
+    <t>Углеводороды_x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Насос шестеренчатый ШН-1</t>
+  </si>
+  <si>
+    <t>Щелочь_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,00012</t>
+  </si>
+  <si>
+    <t>Насос шестеренчатый ШН-2</t>
+  </si>
+  <si>
+    <t>Ингибитор_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,00006</t>
+  </si>
+  <si>
+    <t>Насос шестеренчатый ШН-3</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-101А</t>
+  </si>
+  <si>
+    <t>Нефть_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-101В</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-101C</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-102А</t>
+  </si>
+  <si>
+    <t>Углеводороды_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-102В</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-103А</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-103В</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-104А</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-104В</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-105А</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-105В</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-106А</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-106В</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-108А</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-108В</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-109А</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-109В</t>
+  </si>
+  <si>
+    <t>Насос вакуумный, Р-111А</t>
+  </si>
+  <si>
+    <t>Углеводороды, вода_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,00004</t>
+  </si>
+  <si>
+    <t>Насос вакуумный, Р-111В</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-115А</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-115В</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-116А</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-116В</t>
+  </si>
+  <si>
+    <t>Насос центробежный, НС-1</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-120</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-121</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-122</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-100</t>
+  </si>
+  <si>
+    <t>0,00005</t>
+  </si>
+  <si>
+    <t>Теплообменник Е-201</t>
+  </si>
+  <si>
+    <t>Бензин_x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>260/302</t>
+  </si>
+  <si>
+    <t>2,67/2,67</t>
+  </si>
+  <si>
+    <t>2,25</t>
+  </si>
+  <si>
+    <t>Реактор R-201</t>
+  </si>
+  <si>
+    <t>Колонна Т-201</t>
+  </si>
+  <si>
+    <t>Бензин,_x000D_углеводородный газ_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>1,76</t>
+  </si>
+  <si>
+    <t>4,2</t>
+  </si>
+  <si>
+    <t>Теплообменник Е-203А/В</t>
+  </si>
+  <si>
+    <t>Бензин_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>204/246</t>
+  </si>
+  <si>
+    <t>1,76/1,76</t>
+  </si>
+  <si>
+    <t>0,11</t>
+  </si>
+  <si>
+    <t>Теплообменник Е-204</t>
+  </si>
+  <si>
+    <t>256/362</t>
+  </si>
+  <si>
+    <t>1,2/2,04</t>
+  </si>
+  <si>
+    <t>0,24</t>
+  </si>
+  <si>
+    <t>Емкость V-202</t>
+  </si>
+  <si>
+    <t>Бензин, сернистый газ_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>1,05</t>
+  </si>
+  <si>
+    <t>Бензин,_x000D_водород содержащий газ_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>2,9</t>
+  </si>
+  <si>
+    <t>Сепаратор V-201</t>
+  </si>
+  <si>
+    <t>Теплообменник Е-202</t>
+  </si>
+  <si>
+    <t>454/537</t>
+  </si>
+  <si>
+    <t>2,6/2,32</t>
+  </si>
+  <si>
+    <t>Реактор R-203</t>
+  </si>
+  <si>
+    <t>Бензин, водород_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>2,04</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>Реактор R-202</t>
+  </si>
+  <si>
+    <t>Бензин,_x000D_водород_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>2,14</t>
+  </si>
+  <si>
+    <t>1,9</t>
+  </si>
+  <si>
+    <t>Сепаратор V-204</t>
+  </si>
+  <si>
+    <t>Нефтяной газ_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>3,63</t>
+  </si>
+  <si>
+    <t>0,001</t>
+  </si>
+  <si>
+    <t>Теплообменник Е-210</t>
+  </si>
+  <si>
+    <t>Бензин_x000D__x0007_V =0,6/123 м3</t>
+  </si>
+  <si>
+    <t>1,8/0,8</t>
+  </si>
+  <si>
+    <t>0,66</t>
+  </si>
+  <si>
+    <t>Сепаратор ТK-201</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>0,00001</t>
+  </si>
+  <si>
+    <t>раствор едкого натра</t>
+  </si>
+  <si>
+    <t>АВО АС-201А</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>0,263</t>
+  </si>
+  <si>
+    <t>АВО АС-201 В</t>
+  </si>
+  <si>
+    <t>1,18</t>
+  </si>
+  <si>
+    <t>АВО АС-201 С</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>0,078</t>
+  </si>
+  <si>
+    <t>Водород-содержащий газ_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,000004</t>
+  </si>
+  <si>
+    <t>Компрессор центробежный, К-201А</t>
+  </si>
+  <si>
+    <t>Компрессор центробежный, К-201В</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-201А</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-201В</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-202А</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-202В</t>
+  </si>
+  <si>
+    <t>Насос дозировочный, Р-203</t>
+  </si>
+  <si>
+    <t>Насос центробежный, P-204</t>
+  </si>
+  <si>
+    <t>щелочной раствор_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Насос дозировочный, Р-205</t>
+  </si>
+  <si>
+    <t>Насос дозировочный, Р-206</t>
+  </si>
+  <si>
+    <t>Насос полупогружной, Р-212</t>
+  </si>
+  <si>
+    <t>Насос полупогружной, Р-213</t>
+  </si>
+  <si>
+    <t>Диз.топливо_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Водород_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>3,26</t>
+  </si>
+  <si>
+    <t>0,05</t>
+  </si>
+  <si>
+    <t>Скруббер V-305</t>
+  </si>
+  <si>
+    <t>Емкость V-301</t>
+  </si>
+  <si>
+    <t>0,08</t>
+  </si>
+  <si>
+    <t>Реактор R-301</t>
+  </si>
+  <si>
+    <t>Углеводороды,_x000D_водород_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>4,36</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>Теплообменник Е-302</t>
+  </si>
+  <si>
+    <t>1,41/5,62</t>
+  </si>
+  <si>
+    <t>1,12</t>
+  </si>
+  <si>
+    <t>0,91</t>
+  </si>
+  <si>
+    <t>Ресивер V-303</t>
+  </si>
+  <si>
+    <t>Скруббер V-304</t>
+  </si>
+  <si>
+    <t>0,06</t>
+  </si>
+  <si>
+    <t>Теплообменник Е-301А/В</t>
+  </si>
+  <si>
+    <t>Гексан, бензин_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>302/371</t>
+  </si>
+  <si>
+    <t>4,71/4,29</t>
+  </si>
+  <si>
+    <t>Водородсодержащий газ_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>5,72</t>
+  </si>
+  <si>
+    <t>Газосепаратор V-310</t>
+  </si>
+  <si>
+    <t>Теплообменник Е-304А/В/С</t>
+  </si>
+  <si>
+    <t>200/260</t>
+  </si>
+  <si>
+    <t>1,38/1,06</t>
+  </si>
+  <si>
+    <t>0,22</t>
+  </si>
+  <si>
+    <t>АВО АС-301А</t>
+  </si>
+  <si>
+    <t>4,1</t>
+  </si>
+  <si>
+    <t>0,161</t>
+  </si>
+  <si>
+    <t>АВО АС-302</t>
+  </si>
+  <si>
+    <t>2,6</t>
+  </si>
+  <si>
+    <t>АВО АС-301 В</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>Колонна Т-301</t>
+  </si>
+  <si>
+    <t>0,96</t>
+  </si>
+  <si>
+    <t>7,25</t>
+  </si>
+  <si>
+    <t>Сепаратор V-302</t>
+  </si>
+  <si>
+    <t>4,04</t>
+  </si>
+  <si>
+    <t>2,32</t>
+  </si>
+  <si>
+    <t>Компрессор поршневой, К-301А</t>
+  </si>
+  <si>
+    <t>0,000001</t>
+  </si>
+  <si>
+    <t>Компрессор поршневой, К-301В</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-301А</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-301В</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-302А</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-302В</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-303А</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-303В</t>
+  </si>
+  <si>
+    <t>Колонна Т-401</t>
+  </si>
+  <si>
+    <t>0,21</t>
+  </si>
+  <si>
+    <t>Сепаратор V-401</t>
+  </si>
+  <si>
+    <t>5,2</t>
+  </si>
+  <si>
+    <t>Реактор R-401</t>
+  </si>
+  <si>
+    <t>5,49</t>
+  </si>
+  <si>
+    <t>7,6</t>
+  </si>
+  <si>
+    <t>Колонна Т-402</t>
+  </si>
+  <si>
+    <t>5,21</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>Сепаратор V-403</t>
+  </si>
+  <si>
+    <t>Углеводороды,_x000D_сероводород_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,18</t>
+  </si>
+  <si>
+    <t>Сепаратор V-402</t>
+  </si>
+  <si>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>Теплообменник Е-403А/В/СРег.№НС-6559/ Зав</t>
+  </si>
+  <si>
+    <t>Диз.топливо_x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>1,05/1,05</t>
+  </si>
+  <si>
+    <t>0,82</t>
+  </si>
+  <si>
+    <t>Теплообменник Е-401/402</t>
+  </si>
+  <si>
+    <t>343/400</t>
+  </si>
+  <si>
+    <t>5,8/5,4</t>
+  </si>
+  <si>
+    <t>Теплообменник Е-405</t>
+  </si>
+  <si>
+    <t>216/65</t>
+  </si>
+  <si>
+    <t>1,47/4.6</t>
+  </si>
+  <si>
+    <t>бензин</t>
+  </si>
+  <si>
+    <t>АВО АС-401</t>
+  </si>
+  <si>
+    <t>53,4</t>
+  </si>
+  <si>
+    <t>0,172</t>
+  </si>
+  <si>
+    <t>АВО АС-402А</t>
+  </si>
+  <si>
+    <t>0,019</t>
+  </si>
+  <si>
+    <t>АВО АС-402 В</t>
+  </si>
+  <si>
+    <t>Бензиновая фр_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,13</t>
+  </si>
+  <si>
+    <t>Компрессор поршневой, К-401А</t>
+  </si>
+  <si>
+    <t>Компрессор поршневой, К-401В</t>
+  </si>
+  <si>
+    <t>Компрессор центробежный, К-402А</t>
+  </si>
+  <si>
+    <t>Компрессор центробежный, К-402В</t>
+  </si>
+  <si>
+    <t>Водородсодержащий газ_x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-401А</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-401В</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-401С</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-402А</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-402В</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-403А</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-403В</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-404А</t>
+  </si>
+  <si>
+    <t>Амин_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-404В</t>
+  </si>
+  <si>
+    <t>Амин_x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Насос центробежный, P-405В</t>
+  </si>
+  <si>
+    <t>0,0000001</t>
+  </si>
+  <si>
+    <t>Абсорбер Т-502</t>
+  </si>
+  <si>
+    <t>Сепаратор V-504</t>
+  </si>
+  <si>
+    <t>0,23</t>
+  </si>
+  <si>
+    <t>Сепаратор V-502</t>
+  </si>
+  <si>
+    <t>0,16</t>
+  </si>
+  <si>
+    <t>0,95</t>
+  </si>
+  <si>
+    <t>Колонна Т-503</t>
+  </si>
+  <si>
+    <t>Кислые газы, вода_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Диэтаноламин, вода_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,63</t>
+  </si>
+  <si>
+    <t>Фильтр F-502</t>
+  </si>
+  <si>
+    <t>Сепаратор V-506</t>
+  </si>
+  <si>
+    <t>0,19</t>
+  </si>
+  <si>
+    <t>Емкость V-505</t>
+  </si>
+  <si>
+    <t>Диэтаноламин_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,014</t>
+  </si>
+  <si>
+    <t>0,78</t>
+  </si>
+  <si>
+    <t>Емкость V-503</t>
+  </si>
+  <si>
+    <t>1,63</t>
+  </si>
+  <si>
+    <t>Теплообменник Е-502</t>
+  </si>
+  <si>
+    <t>Диэтаноламин, пар.конденсат_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>160/204</t>
+  </si>
+  <si>
+    <t>0,19/0,52</t>
+  </si>
+  <si>
+    <t>1,96</t>
+  </si>
+  <si>
+    <t>Теплообменник Е-503</t>
+  </si>
+  <si>
+    <t>4,0/4,0</t>
+  </si>
+  <si>
+    <t>Фильтр F-501</t>
+  </si>
+  <si>
+    <t>Фильтр F-503</t>
+  </si>
+  <si>
+    <t>0,707</t>
+  </si>
+  <si>
+    <t>Теплообменник Е-501</t>
+  </si>
+  <si>
+    <t>2,32/2,32</t>
+  </si>
+  <si>
+    <t>0,31</t>
+  </si>
+  <si>
+    <t>АВО АС-501А</t>
+  </si>
+  <si>
+    <t>0,45</t>
+  </si>
+  <si>
+    <t>АВО АС-501 В</t>
+  </si>
+  <si>
+    <t>Пары сероводорода_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,17</t>
+  </si>
+  <si>
+    <t>0,175</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-501А</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-501В</t>
+  </si>
+  <si>
+    <t>Углеводороды _x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-502А</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-502В</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-503А</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-503В</t>
+  </si>
+  <si>
+    <t>Насос полупогружной, Р-504</t>
+  </si>
+  <si>
+    <t>Емкость V-601</t>
+  </si>
+  <si>
+    <t>Сероводород_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,056</t>
+  </si>
+  <si>
+    <t>Емкость V-602</t>
+  </si>
+  <si>
+    <t>Сернистый газ, сероводород_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,009</t>
+  </si>
+  <si>
+    <t>Сборник серы V-603</t>
+  </si>
+  <si>
+    <t>Жидкая сера_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,4</t>
+  </si>
+  <si>
+    <t>Сера, пар_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>188/171</t>
+  </si>
+  <si>
+    <t>0,1/0,35</t>
+  </si>
+  <si>
+    <t>0,248</t>
+  </si>
+  <si>
+    <t>Тигель V-607В</t>
+  </si>
+  <si>
+    <t>Тигель V-607С</t>
+  </si>
+  <si>
+    <t>Тигель V-607Д</t>
+  </si>
+  <si>
+    <t>Сепаратор V-608</t>
+  </si>
+  <si>
+    <t>Сера, азот_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,186</t>
+  </si>
+  <si>
+    <t>Сепаратор V-609</t>
+  </si>
+  <si>
+    <t>Сера, сероводород_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Сепаратор V-610</t>
+  </si>
+  <si>
+    <t>Сборник V-611</t>
+  </si>
+  <si>
+    <t>Сероводород, вода_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,003</t>
+  </si>
+  <si>
+    <t>Сепаратор V-612</t>
+  </si>
+  <si>
+    <t>Сернистый газ_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Получение, использование, переработка, образование, хранение, транспортирование, уничтожение опасных веществ._x000D_Использование оборудования, работающего под избыточным давлением более 0,07 МПа или температуры воды более 115о С._x000D__x0007_Котел утилизатор_x000D_Е-601 ТН-129/_x000D_Зав.№219_x000D__x000D_Опасное вещество: _x000D_Вод.пар, сера, сернистый газ_x000D__x0007_V=9,5 м3_x000D_Р=0,7/0,105 МПа_x000D_Т=177/343°С_x000D_Год изготовления 2008_x000D_Год ввода в эксплуатацию.2008_x000D_Воспламеняющиеся и горючие газы:  0,008т._x000D__x0007_2.1.,_x000D_2.2._x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Вод.пар, сера, сернистый газ_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>177/343</t>
+  </si>
+  <si>
+    <t>0,7/0,105</t>
+  </si>
+  <si>
+    <t>0,008</t>
+  </si>
+  <si>
+    <t>Насос полупогружной, Р-601</t>
+  </si>
+  <si>
+    <t>Сера_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,0001</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-602</t>
+  </si>
+  <si>
+    <t>Теплообменник Е-702</t>
+  </si>
+  <si>
+    <t>Битум, диз.топливо_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>288/204</t>
+  </si>
+  <si>
+    <t>1,23/1,05</t>
+  </si>
+  <si>
+    <t>0,257</t>
+  </si>
+  <si>
+    <t>Теплообменник Е-701А/В</t>
+  </si>
+  <si>
+    <t>0,68</t>
+  </si>
+  <si>
+    <t>Получение, использование, переработка, образование, хранение, транспортирование, уничтожение опасных веществ._x000D_Использование оборудования, работающего под избыточным давлением более 0,07 МПа._x000D__x0007_Испаритель_x000D_Е-703 НС-7616/_x000D_Зав.№8743_x000D__x000D_Опасное вещество: _x000D_Гудрон, котловая вода_x000D__x0007_S=213 м2_x000D_Р=0,42/1,0 МПа_x000D_Т=100/100°С_x000D_Год изготовления 2002_x000D_Год ввода в эксплуатацию.2003_x000D_Горючие жидкости, используемые в технологическом процессе: 0,72т._x000D__x0007_2.1.,_x000D_2.2._x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Гудрон, котловая вода_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,42/1,0</t>
+  </si>
+  <si>
+    <t>0,72</t>
+  </si>
+  <si>
+    <t>Теплообменник Е-704</t>
+  </si>
+  <si>
+    <t>Диз.топливо, орг._x000D_теплоноситель_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Емкость V-705</t>
+  </si>
+  <si>
+    <t>0,02</t>
+  </si>
+  <si>
+    <t>2,46</t>
+  </si>
+  <si>
+    <t>АВО АС-701</t>
+  </si>
+  <si>
+    <t>0,124</t>
+  </si>
+  <si>
+    <t>Емкость V-706</t>
+  </si>
+  <si>
+    <t>Органический_x000D_теплоноситель_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>6,74</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-702А</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-702В</t>
+  </si>
+  <si>
+    <t>Емкость V-805C</t>
+  </si>
+  <si>
+    <t>19,28</t>
+  </si>
+  <si>
+    <t>0,002</t>
+  </si>
+  <si>
+    <t>Емкость V-805D</t>
+  </si>
+  <si>
+    <t>Емкость V-805A</t>
+  </si>
+  <si>
+    <t>Емкость V-805B</t>
+  </si>
+  <si>
+    <t>Сепаратор V-801</t>
+  </si>
+  <si>
+    <t>0,106</t>
+  </si>
+  <si>
+    <t>4,77</t>
+  </si>
+  <si>
+    <t>Теплообменник Е-801</t>
+  </si>
+  <si>
+    <t>Топливный газ, вода_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>93/204</t>
+  </si>
+  <si>
+    <t>0,16/0,42</t>
+  </si>
+  <si>
+    <t>0,004</t>
+  </si>
+  <si>
+    <t>Емкость ТК-801</t>
+  </si>
+  <si>
+    <t>Антифриз_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Емкость Е-7</t>
+  </si>
+  <si>
+    <t>Газовый конденсат_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Емкость Е-8</t>
+  </si>
+  <si>
+    <t>Смесь подтоварной воды и углеводородной_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Компрессор поршневой, К-801</t>
+  </si>
+  <si>
+    <t>17,6</t>
+  </si>
+  <si>
+    <t>0,000005</t>
+  </si>
+  <si>
+    <t>Азот, водород</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-801</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Р-802А</t>
+  </si>
+  <si>
+    <t>Тосол_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,058</t>
+  </si>
+  <si>
+    <t>Емкость V-205</t>
+  </si>
+  <si>
+    <t>Компонент бензина_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>53,8</t>
+  </si>
+  <si>
+    <t>0,28</t>
+  </si>
+  <si>
+    <t>2,27</t>
+  </si>
+  <si>
+    <t>Емкость V-206</t>
+  </si>
+  <si>
+    <t>Емкость V-207</t>
+  </si>
+  <si>
+    <t>0,158</t>
+  </si>
+  <si>
+    <t>10,7</t>
+  </si>
+  <si>
+    <t>Теплообменник Е-205</t>
+  </si>
+  <si>
+    <t>Стаб. катализат, комп.бензина_x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>70/100</t>
+  </si>
+  <si>
+    <t>0,4/0,6</t>
+  </si>
+  <si>
+    <t>0,013</t>
+  </si>
+  <si>
+    <t>Теплообменник Е-206</t>
+  </si>
+  <si>
+    <t>Стабильный катал.,комп. бензина_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Емкость V-208</t>
+  </si>
+  <si>
+    <t>Некондиционный продукт_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>Емкость V-209</t>
+  </si>
+  <si>
+    <t>АВО АС-202</t>
+  </si>
+  <si>
+    <t>Компонент товарного бензина_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,47</t>
+  </si>
+  <si>
+    <t>АВО АС-203/1</t>
+  </si>
+  <si>
+    <t>0,75</t>
+  </si>
+  <si>
+    <t>АВО АС-203/2</t>
+  </si>
+  <si>
+    <t>АВО АС-204</t>
+  </si>
+  <si>
+    <t>Стабильный катализат, дизтопливо_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>157/275</t>
+  </si>
+  <si>
+    <t>0,3/0,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Испаритель Е-208
+ </t>
+  </si>
+  <si>
+    <t>Колонна Т-202</t>
+  </si>
+  <si>
+    <t>Стабильный катализатрифор-минга, бензин, бензол_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,3</t>
+  </si>
+  <si>
+    <t>4,13</t>
+  </si>
+  <si>
+    <t>Колонна Т-203</t>
+  </si>
+  <si>
+    <t>Стабильный катализатриформинга, бензин, бензол_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Испаритель Е-207 43-20-2762 ОК (НХС)/Зав.№27_x000D__x000D__x000D_Опасное вещество: _x000D_Стабильный катализат, дизтопливо_x000D__x0007_V=0,54/0,33 м3_x000D_Р=0,3/0,9 МПа_x000D_Т=157/275°С_x000D_Год изготовления 2010_x000D_Год ввода в эксплуатацию.2011_x000D_Горючие жидкости, используемые в технологическом процессе: 0,19т._x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Насос центробежный Р-207А</t>
+  </si>
+  <si>
+    <t>Бензиновая фракция_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Насос центробежный Р-207В</t>
+  </si>
+  <si>
+    <t>Насос центробежный Р-208А</t>
+  </si>
+  <si>
+    <t>Насос центробежный Р-208В</t>
+  </si>
+  <si>
+    <t>Насос центробежный Р-209А</t>
+  </si>
+  <si>
+    <t>Бензольный конденсат_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Насос центробежный Р-209В</t>
+  </si>
+  <si>
+    <t>Насос центробежный Р-210А</t>
+  </si>
+  <si>
+    <t>Насос центробежный Р-210В</t>
+  </si>
+  <si>
+    <t>0,000045</t>
+  </si>
+  <si>
+    <t>Насос центробежный Р-211А</t>
+  </si>
+  <si>
+    <t>Насос центробежный Р-211В</t>
+  </si>
+  <si>
+    <t>Емкость Е-9/1</t>
+  </si>
+  <si>
+    <t>Изопентан, бензин, экстралин_x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>83,7</t>
+  </si>
+  <si>
+    <t>Емкость Е-9/2</t>
+  </si>
+  <si>
+    <t>Бензольный концентрат_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>97,2</t>
+  </si>
+  <si>
+    <t>Емкость Е-9/3</t>
+  </si>
+  <si>
+    <t>Изогексановая фракция_x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,86</t>
+  </si>
+  <si>
+    <t>Емкость Е-9/4</t>
+  </si>
+  <si>
+    <t>Емкость Е-9/5</t>
+  </si>
+  <si>
+    <t>Метил-трет-бутиловый эфир _x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>62,9</t>
+  </si>
+  <si>
+    <t>Емкость Е-9/6</t>
+  </si>
+  <si>
+    <t>Емкость Е-9/7</t>
+  </si>
+  <si>
+    <t>Изопентан, бензин газовый стабильный_x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>10,4</t>
+  </si>
+  <si>
+    <t>Емкость Е-9/8</t>
+  </si>
+  <si>
+    <t>Метил-трет-амиловый эфир, метил-трет-бутиловый эфир_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>12,36</t>
+  </si>
+  <si>
+    <t>Емкость Е-9/9</t>
+  </si>
+  <si>
+    <t>15,7</t>
+  </si>
+  <si>
+    <t>Емкость Е-9/10</t>
+  </si>
+  <si>
+    <t>Бензинекондиция_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>12,02</t>
+  </si>
+  <si>
+    <t>Емкость Е 9</t>
+  </si>
+  <si>
+    <t>Бензин газовый стабильный_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,7</t>
+  </si>
+  <si>
+    <t>17,8</t>
+  </si>
+  <si>
+    <t>Фильтр ФС-9/3</t>
+  </si>
+  <si>
+    <t>Фильтр ФС-9/13</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Н-9</t>
+  </si>
+  <si>
+    <t>Изопентан,_x000D_бензин_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Насос погружной, Н-9</t>
+  </si>
+  <si>
+    <t>Изопентан_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>МТБЭ, МТАЭ_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>ММА_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>ММА, МТБЭ, МТАЭ_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Изогексановая_x000D_фракция_x000D__x0007_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изогексановая фракция
+ </t>
+  </si>
+  <si>
+    <t>Резервуар вертикальный стальной РВС-5000 №1</t>
+  </si>
+  <si>
+    <t>Резервуар вертикальный стальной РВС-5000 №2</t>
+  </si>
+  <si>
+    <t>Резервуар вертикальный стальной РВС-5000 №3</t>
+  </si>
+  <si>
+    <t>Резервуар вертикальный стальной РВС-5000 №4</t>
+  </si>
+  <si>
+    <t>Аппарат емкостной 1-200-1-1-Т</t>
+  </si>
+  <si>
+    <t>ЛВГ, КГФ</t>
+  </si>
+  <si>
+    <t>Емкость Е-4/1</t>
+  </si>
+  <si>
+    <t>Емкость Е-4/3</t>
+  </si>
+  <si>
+    <t>Емкость Е-4/4</t>
+  </si>
+  <si>
+    <t>ЛВГ, КГФ_x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Емкость Е-1</t>
+  </si>
+  <si>
+    <t>Емкость Е-2</t>
+  </si>
+  <si>
+    <t>Емкость Е-3</t>
+  </si>
+  <si>
+    <t>Бензин _x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Емкость Е-5</t>
+  </si>
+  <si>
+    <t>Нефтепродукт_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Емкость Е-6</t>
+  </si>
+  <si>
+    <t>22,5</t>
+  </si>
+  <si>
+    <t>Емкость Е-1/1</t>
+  </si>
+  <si>
+    <t>Емкость Е-1/2</t>
+  </si>
+  <si>
+    <t>дизельное топливо</t>
+  </si>
+  <si>
+    <t>0,46</t>
+  </si>
+  <si>
+    <t>Гидрозатвор Г-2</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Н-1</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Н-2</t>
+  </si>
+  <si>
+    <t>бензин_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Н-3</t>
+  </si>
+  <si>
+    <t>Насос центробежный, Н-4</t>
+  </si>
+  <si>
+    <t>ЛВГ, КГФ_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Насос полупогружной, Н-5</t>
+  </si>
+  <si>
+    <t>Насос полупогружной, Н-6</t>
+  </si>
+  <si>
+    <t>Насос полупогружной, Н-8</t>
+  </si>
+  <si>
+    <t>Насос полупогружной, Н-7</t>
+  </si>
+  <si>
+    <t>0,083</t>
+  </si>
+  <si>
+    <t>Нефтепродукты_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,094</t>
+  </si>
+  <si>
+    <t>Аппарат емкостной ЕП-25-2400-1-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автоматическая система налива АСН-12ВГ, АСН-1
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автоматическая система налива АСН-12ВГ, АСН-3
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автоматическая система налива АСН-12ВГ, АСН-2
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автоматическая система налива АСН-12ВГ, АСН-4
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автоматическая система налива АСН-12ВГ, АСН-5
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автоматическая система налива АСН-12ВГ, АСН-6
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автоматическая система налива АСН-12ВГ, АСН-7
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автоматическая система налива АСН-12ВГ, АСН-8
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Автоматическая система наливаАСН-12ВГ, АСН-9
+ </t>
+  </si>
+  <si>
+    <t>Насос центробежный, АСН-1</t>
+  </si>
+  <si>
+    <t>Насос центробежный, АСН-2</t>
+  </si>
+  <si>
+    <t>Насос центробежный, АСН-3</t>
+  </si>
+  <si>
+    <t>Насос центробежный, АСН-4</t>
+  </si>
+  <si>
+    <t>Насос центробежный, АСН-5</t>
+  </si>
+  <si>
+    <t>Насос центробежный, АСН-6</t>
+  </si>
+  <si>
+    <t>Насос центробежный, АСН-7</t>
+  </si>
+  <si>
+    <t>Насос центробежный, АСН-8</t>
+  </si>
+  <si>
+    <t>Насос центробежный, АСН-9</t>
+  </si>
+  <si>
+    <t>Насос полупогружной, НП-1</t>
+  </si>
+  <si>
+    <t>Насос полупогружной, НП-2</t>
+  </si>
+  <si>
+    <t>Емкость подземная ЕП-1</t>
+  </si>
+  <si>
+    <t>Насос дозирующий НД-904</t>
+  </si>
+  <si>
+    <t>Депрессорная присадка_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>10,0</t>
+  </si>
+  <si>
+    <t>Насос дозирующий НД-902</t>
+  </si>
+  <si>
+    <t>Смазывающая присадка_x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Нефть._x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка товарной нефти от Т-100/1до печи Н-101</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -214,12 +1965,24 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -234,13 +1997,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -555,15 +2322,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4581F54E-6B8F-4241-AA30-E2924B08C381}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="B15:E15"/>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="B327" sqref="B326:B327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" customWidth="1"/>
     <col min="2" max="2" width="44.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
@@ -588,7 +2355,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -605,7 +2372,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B3" t="s">
@@ -622,7 +2389,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
@@ -639,7 +2406,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B5" t="s">
@@ -656,11 +2423,11 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -673,8 +2440,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>40</v>
+      <c r="A7" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
@@ -690,11 +2457,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>41</v>
+      <c r="A8" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -707,8 +2474,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>43</v>
+      <c r="A9" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
@@ -724,11 +2491,11 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>44</v>
+      <c r="A10" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -741,11 +2508,11 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="C11">
         <v>341</v>
@@ -758,11 +2525,11 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="C12">
         <v>165</v>
@@ -775,11 +2542,11 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="C13">
         <v>100</v>
@@ -792,11 +2559,11 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>48</v>
+      <c r="A14" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -808,32 +2575,4454 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="2"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="3"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="2"/>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E44" s="2"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17">
+        <v>150</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20">
+        <v>149</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21">
+        <v>177</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25">
+        <v>343</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1.0660000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26">
+        <v>399</v>
+      </c>
+      <c r="D26">
+        <v>93</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28">
+        <v>168</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29">
+        <v>204</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30">
+        <v>300</v>
+      </c>
+      <c r="D30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31">
+        <v>300</v>
+      </c>
+      <c r="D31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>0.2</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>0.2</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>0.2</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>1.2E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36">
+        <v>30</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>1.2E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37">
+        <v>30</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>1.2E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38">
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>1.2E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39">
+        <v>30</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>1.2E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>6.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41">
+        <v>30</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>6.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42">
+        <v>30</v>
+      </c>
+      <c r="D42">
+        <v>4.5</v>
+      </c>
+      <c r="E42">
+        <v>6.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43">
+        <v>30</v>
+      </c>
+      <c r="D43">
+        <v>4.5</v>
+      </c>
+      <c r="E43">
+        <v>6.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" t="s">
+        <v>138</v>
+      </c>
+      <c r="E56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" t="s">
+        <v>138</v>
+      </c>
+      <c r="E59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>143</v>
+      </c>
+      <c r="B61" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" t="s">
+        <v>138</v>
+      </c>
+      <c r="E65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+      <c r="E66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>149</v>
+      </c>
+      <c r="B67" t="s">
+        <v>138</v>
+      </c>
+      <c r="E67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
+      </c>
+      <c r="E68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" t="s">
+        <v>138</v>
+      </c>
+      <c r="E69" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" t="s">
+        <v>153</v>
+      </c>
+      <c r="E70" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" t="s">
+        <v>153</v>
+      </c>
+      <c r="E71" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" t="s">
+        <v>138</v>
+      </c>
+      <c r="E72" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>157</v>
+      </c>
+      <c r="B73" t="s">
+        <v>138</v>
+      </c>
+      <c r="E73" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74" t="s">
+        <v>138</v>
+      </c>
+      <c r="E74" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" t="s">
+        <v>138</v>
+      </c>
+      <c r="E75" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" t="s">
+        <v>127</v>
+      </c>
+      <c r="E76" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>161</v>
+      </c>
+      <c r="B77" t="s">
+        <v>127</v>
+      </c>
+      <c r="E77" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" t="s">
+        <v>127</v>
+      </c>
+      <c r="E78" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" t="s">
+        <v>127</v>
+      </c>
+      <c r="E79" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>164</v>
+      </c>
+      <c r="B80" t="s">
+        <v>138</v>
+      </c>
+      <c r="E80" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" t="s">
+        <v>138</v>
+      </c>
+      <c r="E81" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>138</v>
+      </c>
+      <c r="E82" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
+        <v>138</v>
+      </c>
+      <c r="E83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" t="s">
+        <v>138</v>
+      </c>
+      <c r="E84" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" t="s">
+        <v>138</v>
+      </c>
+      <c r="E85" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>166</v>
+      </c>
+      <c r="B86" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" t="s">
+        <v>168</v>
+      </c>
+      <c r="D86" t="s">
+        <v>169</v>
+      </c>
+      <c r="E86" s="4">
+        <v>1.377</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87">
+        <v>538</v>
+      </c>
+      <c r="D87" t="s">
+        <v>170</v>
+      </c>
+      <c r="E87" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88">
+        <v>246</v>
+      </c>
+      <c r="D88" t="s">
+        <v>174</v>
+      </c>
+      <c r="E88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" t="s">
+        <v>178</v>
+      </c>
+      <c r="D89" t="s">
+        <v>179</v>
+      </c>
+      <c r="E89" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" t="s">
+        <v>182</v>
+      </c>
+      <c r="D90" t="s">
+        <v>183</v>
+      </c>
+      <c r="E90" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>185</v>
+      </c>
+      <c r="B91" t="s">
+        <v>186</v>
+      </c>
+      <c r="C91">
+        <v>111</v>
+      </c>
+      <c r="D91" t="s">
+        <v>187</v>
+      </c>
+      <c r="E91">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>190</v>
+      </c>
+      <c r="B92" t="s">
+        <v>188</v>
+      </c>
+      <c r="C92">
+        <v>96</v>
+      </c>
+      <c r="D92" t="s">
+        <v>174</v>
+      </c>
+      <c r="E92" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" t="s">
+        <v>192</v>
+      </c>
+      <c r="D93" t="s">
+        <v>193</v>
+      </c>
+      <c r="E93" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94">
+        <v>538</v>
+      </c>
+      <c r="D94" t="s">
+        <v>196</v>
+      </c>
+      <c r="E94" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>198</v>
+      </c>
+      <c r="B95" t="s">
+        <v>199</v>
+      </c>
+      <c r="C95">
+        <v>538</v>
+      </c>
+      <c r="D95" t="s">
+        <v>200</v>
+      </c>
+      <c r="E95" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>202</v>
+      </c>
+      <c r="B96" t="s">
+        <v>203</v>
+      </c>
+      <c r="C96">
+        <v>100</v>
+      </c>
+      <c r="D96" t="s">
+        <v>204</v>
+      </c>
+      <c r="E96" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>206</v>
+      </c>
+      <c r="B97" t="s">
+        <v>207</v>
+      </c>
+      <c r="C97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" t="s">
+        <v>208</v>
+      </c>
+      <c r="E97" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>210</v>
+      </c>
+      <c r="B98" t="s">
+        <v>213</v>
+      </c>
+      <c r="C98">
+        <v>30</v>
+      </c>
+      <c r="D98" t="s">
+        <v>211</v>
+      </c>
+      <c r="E98" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>214</v>
+      </c>
+      <c r="B99" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99">
+        <v>193</v>
+      </c>
+      <c r="D99" t="s">
+        <v>215</v>
+      </c>
+      <c r="E99" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>217</v>
+      </c>
+      <c r="B100" t="s">
+        <v>177</v>
+      </c>
+      <c r="C100">
+        <v>99</v>
+      </c>
+      <c r="D100" t="s">
+        <v>218</v>
+      </c>
+      <c r="E100" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>219</v>
+      </c>
+      <c r="B101" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101">
+        <v>149</v>
+      </c>
+      <c r="D101" t="s">
+        <v>220</v>
+      </c>
+      <c r="E101" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>224</v>
+      </c>
+      <c r="B102" t="s">
+        <v>222</v>
+      </c>
+      <c r="E102" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>225</v>
+      </c>
+      <c r="B103" t="s">
+        <v>222</v>
+      </c>
+      <c r="E103" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>226</v>
+      </c>
+      <c r="B104" t="s">
+        <v>138</v>
+      </c>
+      <c r="E104" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>227</v>
+      </c>
+      <c r="B105" t="s">
+        <v>138</v>
+      </c>
+      <c r="E105" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>228</v>
+      </c>
+      <c r="B106" t="s">
+        <v>138</v>
+      </c>
+      <c r="E106" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>229</v>
+      </c>
+      <c r="B107" t="s">
+        <v>138</v>
+      </c>
+      <c r="E107" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>230</v>
+      </c>
+      <c r="B108" t="s">
+        <v>138</v>
+      </c>
+      <c r="E108" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>231</v>
+      </c>
+      <c r="B109" t="s">
+        <v>232</v>
+      </c>
+      <c r="E109" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>233</v>
+      </c>
+      <c r="B110" t="s">
+        <v>138</v>
+      </c>
+      <c r="E110" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>234</v>
+      </c>
+      <c r="B111" t="s">
+        <v>138</v>
+      </c>
+      <c r="E111" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>235</v>
+      </c>
+      <c r="B112" t="s">
+        <v>177</v>
+      </c>
+      <c r="E112" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>236</v>
+      </c>
+      <c r="B113" t="s">
+        <v>237</v>
+      </c>
+      <c r="E113" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>241</v>
+      </c>
+      <c r="B114" t="s">
+        <v>238</v>
+      </c>
+      <c r="C114">
+        <v>93</v>
+      </c>
+      <c r="D114" t="s">
+        <v>239</v>
+      </c>
+      <c r="E114" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>242</v>
+      </c>
+      <c r="B115" t="s">
+        <v>167</v>
+      </c>
+      <c r="C115">
+        <v>121</v>
+      </c>
+      <c r="D115" t="s">
+        <v>243</v>
+      </c>
+      <c r="E115" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>244</v>
+      </c>
+      <c r="B116" t="s">
+        <v>245</v>
+      </c>
+      <c r="C116">
+        <v>399</v>
+      </c>
+      <c r="D116" t="s">
+        <v>246</v>
+      </c>
+      <c r="E116" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>248</v>
+      </c>
+      <c r="B117" t="s">
+        <v>177</v>
+      </c>
+      <c r="C117">
+        <v>260</v>
+      </c>
+      <c r="D117" t="s">
+        <v>249</v>
+      </c>
+      <c r="E117" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>252</v>
+      </c>
+      <c r="B118" t="s">
+        <v>177</v>
+      </c>
+      <c r="C118">
+        <v>93</v>
+      </c>
+      <c r="D118" t="s">
+        <v>251</v>
+      </c>
+      <c r="E118" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>253</v>
+      </c>
+      <c r="B119" t="s">
+        <v>238</v>
+      </c>
+      <c r="C119">
+        <v>93</v>
+      </c>
+      <c r="D119" t="s">
+        <v>174</v>
+      </c>
+      <c r="E119" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>255</v>
+      </c>
+      <c r="B120" t="s">
+        <v>256</v>
+      </c>
+      <c r="C120" t="s">
+        <v>257</v>
+      </c>
+      <c r="D120" t="s">
+        <v>258</v>
+      </c>
+      <c r="E120" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>261</v>
+      </c>
+      <c r="B121" t="s">
+        <v>259</v>
+      </c>
+      <c r="C121">
+        <v>100</v>
+      </c>
+      <c r="D121" t="s">
+        <v>260</v>
+      </c>
+      <c r="E121" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>262</v>
+      </c>
+      <c r="B122" t="s">
+        <v>177</v>
+      </c>
+      <c r="C122" t="s">
+        <v>263</v>
+      </c>
+      <c r="D122" t="s">
+        <v>264</v>
+      </c>
+      <c r="E122" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>266</v>
+      </c>
+      <c r="B123" t="s">
+        <v>177</v>
+      </c>
+      <c r="C123">
+        <v>177</v>
+      </c>
+      <c r="D123" t="s">
+        <v>267</v>
+      </c>
+      <c r="E123" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>269</v>
+      </c>
+      <c r="B124" t="s">
+        <v>177</v>
+      </c>
+      <c r="C124">
+        <v>177</v>
+      </c>
+      <c r="D124" t="s">
+        <v>270</v>
+      </c>
+      <c r="E124" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>271</v>
+      </c>
+      <c r="B125" t="s">
+        <v>177</v>
+      </c>
+      <c r="C125">
+        <v>132</v>
+      </c>
+      <c r="D125" t="s">
+        <v>272</v>
+      </c>
+      <c r="E125" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>273</v>
+      </c>
+      <c r="B126" t="s">
+        <v>173</v>
+      </c>
+      <c r="C126">
+        <v>260</v>
+      </c>
+      <c r="D126" t="s">
+        <v>274</v>
+      </c>
+      <c r="E126" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>276</v>
+      </c>
+      <c r="B127" t="s">
+        <v>177</v>
+      </c>
+      <c r="C127">
+        <v>121</v>
+      </c>
+      <c r="D127" t="s">
+        <v>277</v>
+      </c>
+      <c r="E127" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>279</v>
+      </c>
+      <c r="B128" t="s">
+        <v>259</v>
+      </c>
+      <c r="E128" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>281</v>
+      </c>
+      <c r="B129" t="s">
+        <v>259</v>
+      </c>
+      <c r="E129" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>282</v>
+      </c>
+      <c r="B130" t="s">
+        <v>138</v>
+      </c>
+      <c r="E130" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>283</v>
+      </c>
+      <c r="B131" t="s">
+        <v>138</v>
+      </c>
+      <c r="E131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>284</v>
+      </c>
+      <c r="B132" t="s">
+        <v>138</v>
+      </c>
+      <c r="E132" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>285</v>
+      </c>
+      <c r="B133" t="s">
+        <v>138</v>
+      </c>
+      <c r="E133" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>286</v>
+      </c>
+      <c r="B134" t="s">
+        <v>138</v>
+      </c>
+      <c r="E134" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>287</v>
+      </c>
+      <c r="B135" t="s">
+        <v>138</v>
+      </c>
+      <c r="E135" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>288</v>
+      </c>
+      <c r="B136" t="s">
+        <v>237</v>
+      </c>
+      <c r="C136">
+        <v>371</v>
+      </c>
+      <c r="D136" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>290</v>
+      </c>
+      <c r="B137" t="s">
+        <v>237</v>
+      </c>
+      <c r="C137">
+        <v>93</v>
+      </c>
+      <c r="D137" t="s">
+        <v>291</v>
+      </c>
+      <c r="E137" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>292</v>
+      </c>
+      <c r="B138" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138">
+        <v>399</v>
+      </c>
+      <c r="D138" t="s">
+        <v>293</v>
+      </c>
+      <c r="E138" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>295</v>
+      </c>
+      <c r="B139" t="s">
+        <v>138</v>
+      </c>
+      <c r="C139">
+        <v>93</v>
+      </c>
+      <c r="D139" t="s">
+        <v>296</v>
+      </c>
+      <c r="E139" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>298</v>
+      </c>
+      <c r="B140" t="s">
+        <v>299</v>
+      </c>
+      <c r="C140">
+        <v>193</v>
+      </c>
+      <c r="D140" t="s">
+        <v>300</v>
+      </c>
+      <c r="E140" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>301</v>
+      </c>
+      <c r="B141" t="s">
+        <v>125</v>
+      </c>
+      <c r="C141">
+        <v>93</v>
+      </c>
+      <c r="D141" t="s">
+        <v>187</v>
+      </c>
+      <c r="E141" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>303</v>
+      </c>
+      <c r="B142" t="s">
+        <v>304</v>
+      </c>
+      <c r="C142">
+        <v>260</v>
+      </c>
+      <c r="D142" t="s">
+        <v>305</v>
+      </c>
+      <c r="E142" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>307</v>
+      </c>
+      <c r="B143" t="s">
+        <v>237</v>
+      </c>
+      <c r="C143" t="s">
+        <v>308</v>
+      </c>
+      <c r="D143" t="s">
+        <v>309</v>
+      </c>
+      <c r="E143" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>310</v>
+      </c>
+      <c r="B144" t="s">
+        <v>313</v>
+      </c>
+      <c r="C144" t="s">
+        <v>311</v>
+      </c>
+      <c r="D144" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>314</v>
+      </c>
+      <c r="B145" t="s">
+        <v>138</v>
+      </c>
+      <c r="C145">
+        <v>204</v>
+      </c>
+      <c r="D145" t="s">
+        <v>315</v>
+      </c>
+      <c r="E145" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>317</v>
+      </c>
+      <c r="B146" t="s">
+        <v>138</v>
+      </c>
+      <c r="C146">
+        <v>216</v>
+      </c>
+      <c r="D146" t="s">
+        <v>187</v>
+      </c>
+      <c r="E146" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>319</v>
+      </c>
+      <c r="B147" t="s">
+        <v>320</v>
+      </c>
+      <c r="C147">
+        <v>177</v>
+      </c>
+      <c r="D147" t="s">
+        <v>29</v>
+      </c>
+      <c r="E147" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>322</v>
+      </c>
+      <c r="B148" t="s">
+        <v>259</v>
+      </c>
+      <c r="E148" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>323</v>
+      </c>
+      <c r="B149" t="s">
+        <v>259</v>
+      </c>
+      <c r="E149" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>324</v>
+      </c>
+      <c r="B150" t="s">
+        <v>259</v>
+      </c>
+      <c r="E150" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>325</v>
+      </c>
+      <c r="B151" t="s">
+        <v>326</v>
+      </c>
+      <c r="E151" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>327</v>
+      </c>
+      <c r="B152" t="s">
+        <v>138</v>
+      </c>
+      <c r="E152" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>328</v>
+      </c>
+      <c r="B153" t="s">
+        <v>138</v>
+      </c>
+      <c r="E153" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>329</v>
+      </c>
+      <c r="B154" t="s">
+        <v>138</v>
+      </c>
+      <c r="E154" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>330</v>
+      </c>
+      <c r="B155" t="s">
+        <v>138</v>
+      </c>
+      <c r="E155" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>331</v>
+      </c>
+      <c r="B156" t="s">
+        <v>138</v>
+      </c>
+      <c r="E156" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>332</v>
+      </c>
+      <c r="B157" t="s">
+        <v>138</v>
+      </c>
+      <c r="E157" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>333</v>
+      </c>
+      <c r="B158" t="s">
+        <v>138</v>
+      </c>
+      <c r="E158" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>334</v>
+      </c>
+      <c r="B159" t="s">
+        <v>335</v>
+      </c>
+      <c r="E159" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>336</v>
+      </c>
+      <c r="B160" t="s">
+        <v>337</v>
+      </c>
+      <c r="E160" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>338</v>
+      </c>
+      <c r="B161" t="s">
+        <v>232</v>
+      </c>
+      <c r="E161" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>340</v>
+      </c>
+      <c r="B162" t="s">
+        <v>299</v>
+      </c>
+      <c r="C162">
+        <v>93</v>
+      </c>
+      <c r="D162" t="s">
+        <v>300</v>
+      </c>
+      <c r="E162" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>341</v>
+      </c>
+      <c r="B163" t="s">
+        <v>138</v>
+      </c>
+      <c r="C163">
+        <v>93</v>
+      </c>
+      <c r="D163" t="s">
+        <v>300</v>
+      </c>
+      <c r="E163" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>343</v>
+      </c>
+      <c r="B164" t="s">
+        <v>138</v>
+      </c>
+      <c r="C164">
+        <v>93</v>
+      </c>
+      <c r="D164" t="s">
+        <v>344</v>
+      </c>
+      <c r="E164" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>346</v>
+      </c>
+      <c r="B165" t="s">
+        <v>347</v>
+      </c>
+      <c r="C165">
+        <v>154</v>
+      </c>
+      <c r="D165" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>350</v>
+      </c>
+      <c r="B166" t="s">
+        <v>348</v>
+      </c>
+      <c r="C166">
+        <v>93</v>
+      </c>
+      <c r="D166" t="s">
+        <v>349</v>
+      </c>
+      <c r="E166">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>351</v>
+      </c>
+      <c r="B167" t="s">
+        <v>138</v>
+      </c>
+      <c r="C167">
+        <v>93</v>
+      </c>
+      <c r="D167" t="s">
+        <v>352</v>
+      </c>
+      <c r="E167" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>353</v>
+      </c>
+      <c r="B168" t="s">
+        <v>354</v>
+      </c>
+      <c r="C168">
+        <v>149</v>
+      </c>
+      <c r="D168" t="s">
+        <v>355</v>
+      </c>
+      <c r="E168" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>357</v>
+      </c>
+      <c r="B169" t="s">
+        <v>348</v>
+      </c>
+      <c r="C169">
+        <v>149</v>
+      </c>
+      <c r="D169" t="s">
+        <v>355</v>
+      </c>
+      <c r="E169" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>359</v>
+      </c>
+      <c r="B170" t="s">
+        <v>360</v>
+      </c>
+      <c r="C170" t="s">
+        <v>361</v>
+      </c>
+      <c r="D170" t="s">
+        <v>362</v>
+      </c>
+      <c r="E170" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>364</v>
+      </c>
+      <c r="B171" t="s">
+        <v>348</v>
+      </c>
+      <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
+        <v>365</v>
+      </c>
+      <c r="E171">
+        <v>0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>366</v>
+      </c>
+      <c r="B172" t="s">
+        <v>348</v>
+      </c>
+      <c r="C172">
+        <v>45</v>
+      </c>
+      <c r="D172" t="s">
+        <v>87</v>
+      </c>
+      <c r="E172" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>367</v>
+      </c>
+      <c r="B173" t="s">
+        <v>348</v>
+      </c>
+      <c r="C173">
+        <v>93</v>
+      </c>
+      <c r="D173" t="s">
+        <v>368</v>
+      </c>
+      <c r="E173" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>369</v>
+      </c>
+      <c r="B174" t="s">
+        <v>354</v>
+      </c>
+      <c r="C174" t="s">
+        <v>32</v>
+      </c>
+      <c r="D174" t="s">
+        <v>370</v>
+      </c>
+      <c r="E174" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>372</v>
+      </c>
+      <c r="B175" t="s">
+        <v>354</v>
+      </c>
+      <c r="C175">
+        <v>121</v>
+      </c>
+      <c r="D175" t="s">
+        <v>373</v>
+      </c>
+      <c r="E175" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>374</v>
+      </c>
+      <c r="B176" t="s">
+        <v>375</v>
+      </c>
+      <c r="C176">
+        <v>145</v>
+      </c>
+      <c r="D176" t="s">
+        <v>376</v>
+      </c>
+      <c r="E176" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>378</v>
+      </c>
+      <c r="B177" t="s">
+        <v>138</v>
+      </c>
+      <c r="E177" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>379</v>
+      </c>
+      <c r="B178" t="s">
+        <v>380</v>
+      </c>
+      <c r="E178" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>381</v>
+      </c>
+      <c r="B179" t="s">
+        <v>138</v>
+      </c>
+      <c r="E179" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>382</v>
+      </c>
+      <c r="B180" t="s">
+        <v>138</v>
+      </c>
+      <c r="E180" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>383</v>
+      </c>
+      <c r="B181" t="s">
+        <v>138</v>
+      </c>
+      <c r="E181" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>384</v>
+      </c>
+      <c r="B182" t="s">
+        <v>138</v>
+      </c>
+      <c r="E182" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>385</v>
+      </c>
+      <c r="B183" t="s">
+        <v>138</v>
+      </c>
+      <c r="E183" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>386</v>
+      </c>
+      <c r="B184" t="s">
+        <v>387</v>
+      </c>
+      <c r="C184">
+        <v>193</v>
+      </c>
+      <c r="D184" t="s">
+        <v>388</v>
+      </c>
+      <c r="E184" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>389</v>
+      </c>
+      <c r="B185" t="s">
+        <v>390</v>
+      </c>
+      <c r="C185">
+        <v>343</v>
+      </c>
+      <c r="D185" t="s">
+        <v>58</v>
+      </c>
+      <c r="E185" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>392</v>
+      </c>
+      <c r="B186" t="s">
+        <v>393</v>
+      </c>
+      <c r="C186">
+        <v>149</v>
+      </c>
+      <c r="D186" t="s">
+        <v>394</v>
+      </c>
+      <c r="E186">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>399</v>
+      </c>
+      <c r="B187" t="s">
+        <v>395</v>
+      </c>
+      <c r="C187" t="s">
+        <v>396</v>
+      </c>
+      <c r="D187" t="s">
+        <v>397</v>
+      </c>
+      <c r="E187" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>400</v>
+      </c>
+      <c r="B188" t="s">
+        <v>395</v>
+      </c>
+      <c r="C188" t="s">
+        <v>396</v>
+      </c>
+      <c r="D188" t="s">
+        <v>397</v>
+      </c>
+      <c r="E188" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>401</v>
+      </c>
+      <c r="B189" t="s">
+        <v>395</v>
+      </c>
+      <c r="C189" t="s">
+        <v>396</v>
+      </c>
+      <c r="D189" t="s">
+        <v>397</v>
+      </c>
+      <c r="E189" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>402</v>
+      </c>
+      <c r="B190" t="s">
+        <v>403</v>
+      </c>
+      <c r="C190">
+        <v>204</v>
+      </c>
+      <c r="D190" t="s">
+        <v>180</v>
+      </c>
+      <c r="E190" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>405</v>
+      </c>
+      <c r="B191" t="s">
+        <v>406</v>
+      </c>
+      <c r="C191">
+        <v>204</v>
+      </c>
+      <c r="D191" t="s">
+        <v>180</v>
+      </c>
+      <c r="E191" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>407</v>
+      </c>
+      <c r="B192" t="s">
+        <v>406</v>
+      </c>
+      <c r="C192">
+        <v>204</v>
+      </c>
+      <c r="D192" t="s">
+        <v>180</v>
+      </c>
+      <c r="E192" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>408</v>
+      </c>
+      <c r="B193" t="s">
+        <v>409</v>
+      </c>
+      <c r="C193">
+        <v>93</v>
+      </c>
+      <c r="D193" t="s">
+        <v>211</v>
+      </c>
+      <c r="E193" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>411</v>
+      </c>
+      <c r="B194" t="s">
+        <v>412</v>
+      </c>
+      <c r="C194">
+        <v>343</v>
+      </c>
+      <c r="D194" t="s">
+        <v>388</v>
+      </c>
+      <c r="E194" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>413</v>
+      </c>
+      <c r="B195" t="s">
+        <v>414</v>
+      </c>
+      <c r="C195" t="s">
+        <v>415</v>
+      </c>
+      <c r="D195" t="s">
+        <v>416</v>
+      </c>
+      <c r="E195" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>418</v>
+      </c>
+      <c r="B196" t="s">
+        <v>419</v>
+      </c>
+      <c r="E196" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>421</v>
+      </c>
+      <c r="B197" t="s">
+        <v>138</v>
+      </c>
+      <c r="E197" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>422</v>
+      </c>
+      <c r="B198" t="s">
+        <v>423</v>
+      </c>
+      <c r="C198" t="s">
+        <v>424</v>
+      </c>
+      <c r="D198" t="s">
+        <v>425</v>
+      </c>
+      <c r="E198" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>427</v>
+      </c>
+      <c r="B199" t="s">
+        <v>423</v>
+      </c>
+      <c r="C199" t="s">
+        <v>424</v>
+      </c>
+      <c r="D199" t="s">
+        <v>425</v>
+      </c>
+      <c r="E199" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>429</v>
+      </c>
+      <c r="B200" t="s">
+        <v>430</v>
+      </c>
+      <c r="C200" t="s">
+        <v>63</v>
+      </c>
+      <c r="D200" t="s">
+        <v>431</v>
+      </c>
+      <c r="E200" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>433</v>
+      </c>
+      <c r="B201" t="s">
+        <v>434</v>
+      </c>
+      <c r="C201" t="s">
+        <v>23</v>
+      </c>
+      <c r="D201" t="s">
+        <v>22</v>
+      </c>
+      <c r="E201" s="2">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>435</v>
+      </c>
+      <c r="B202" t="s">
+        <v>237</v>
+      </c>
+      <c r="C202">
+        <v>149</v>
+      </c>
+      <c r="D202" t="s">
+        <v>436</v>
+      </c>
+      <c r="E202" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>438</v>
+      </c>
+      <c r="B203" t="s">
+        <v>237</v>
+      </c>
+      <c r="C203">
+        <v>177</v>
+      </c>
+      <c r="D203" t="s">
+        <v>211</v>
+      </c>
+      <c r="E203" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>440</v>
+      </c>
+      <c r="B204" t="s">
+        <v>441</v>
+      </c>
+      <c r="C204">
+        <v>130</v>
+      </c>
+      <c r="D204" t="s">
+        <v>211</v>
+      </c>
+      <c r="E204" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>443</v>
+      </c>
+      <c r="B205" t="s">
+        <v>237</v>
+      </c>
+      <c r="E205" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>444</v>
+      </c>
+      <c r="B206" t="s">
+        <v>237</v>
+      </c>
+      <c r="E206" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>445</v>
+      </c>
+      <c r="B207" t="s">
+        <v>238</v>
+      </c>
+      <c r="C207">
+        <v>93</v>
+      </c>
+      <c r="D207" t="s">
+        <v>446</v>
+      </c>
+      <c r="E207" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>448</v>
+      </c>
+      <c r="B208" t="s">
+        <v>238</v>
+      </c>
+      <c r="C208">
+        <v>93</v>
+      </c>
+      <c r="D208" t="s">
+        <v>446</v>
+      </c>
+      <c r="E208" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>449</v>
+      </c>
+      <c r="B209" t="s">
+        <v>238</v>
+      </c>
+      <c r="C209">
+        <v>93</v>
+      </c>
+      <c r="D209" t="s">
+        <v>446</v>
+      </c>
+      <c r="E209" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>450</v>
+      </c>
+      <c r="B210" t="s">
+        <v>238</v>
+      </c>
+      <c r="C210">
+        <v>93</v>
+      </c>
+      <c r="D210" t="s">
+        <v>446</v>
+      </c>
+      <c r="E210" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>451</v>
+      </c>
+      <c r="B211" t="s">
+        <v>138</v>
+      </c>
+      <c r="C211">
+        <v>426</v>
+      </c>
+      <c r="D211" t="s">
+        <v>452</v>
+      </c>
+      <c r="E211" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>454</v>
+      </c>
+      <c r="B212" t="s">
+        <v>455</v>
+      </c>
+      <c r="C212" t="s">
+        <v>456</v>
+      </c>
+      <c r="D212" t="s">
+        <v>457</v>
+      </c>
+      <c r="E212" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>459</v>
+      </c>
+      <c r="B213" t="s">
+        <v>460</v>
+      </c>
+      <c r="C213">
+        <v>65</v>
+      </c>
+      <c r="D213" t="s">
+        <v>211</v>
+      </c>
+      <c r="E213">
+        <v>1.498</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>461</v>
+      </c>
+      <c r="B214" t="s">
+        <v>462</v>
+      </c>
+      <c r="C214">
+        <v>20</v>
+      </c>
+      <c r="D214" t="s">
+        <v>79</v>
+      </c>
+      <c r="E214">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>463</v>
+      </c>
+      <c r="B215" t="s">
+        <v>464</v>
+      </c>
+      <c r="C215">
+        <v>20</v>
+      </c>
+      <c r="D215" t="s">
+        <v>7</v>
+      </c>
+      <c r="E215">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>465</v>
+      </c>
+      <c r="B216" t="s">
+        <v>468</v>
+      </c>
+      <c r="D216" t="s">
+        <v>466</v>
+      </c>
+      <c r="E216" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>469</v>
+      </c>
+      <c r="B217" t="s">
+        <v>138</v>
+      </c>
+      <c r="E217" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>470</v>
+      </c>
+      <c r="B218" t="s">
+        <v>471</v>
+      </c>
+      <c r="E218" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>473</v>
+      </c>
+      <c r="B219" t="s">
+        <v>474</v>
+      </c>
+      <c r="C219" t="s">
+        <v>475</v>
+      </c>
+      <c r="D219" t="s">
+        <v>476</v>
+      </c>
+      <c r="E219" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>478</v>
+      </c>
+      <c r="B220" t="s">
+        <v>474</v>
+      </c>
+      <c r="C220" t="s">
+        <v>475</v>
+      </c>
+      <c r="D220" t="s">
+        <v>476</v>
+      </c>
+      <c r="E220" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>479</v>
+      </c>
+      <c r="B221" t="s">
+        <v>237</v>
+      </c>
+      <c r="C221">
+        <v>215</v>
+      </c>
+      <c r="D221" t="s">
+        <v>480</v>
+      </c>
+      <c r="E221" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>482</v>
+      </c>
+      <c r="B222" t="s">
+        <v>483</v>
+      </c>
+      <c r="C222" t="s">
+        <v>484</v>
+      </c>
+      <c r="D222" t="s">
+        <v>485</v>
+      </c>
+      <c r="E222" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>487</v>
+      </c>
+      <c r="B223" t="s">
+        <v>488</v>
+      </c>
+      <c r="C223" t="s">
+        <v>484</v>
+      </c>
+      <c r="D223" t="s">
+        <v>485</v>
+      </c>
+      <c r="E223" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>489</v>
+      </c>
+      <c r="B224" t="s">
+        <v>490</v>
+      </c>
+      <c r="C224">
+        <v>38</v>
+      </c>
+      <c r="D224" t="s">
+        <v>79</v>
+      </c>
+      <c r="E224" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>492</v>
+      </c>
+      <c r="B225" t="s">
+        <v>490</v>
+      </c>
+      <c r="C225">
+        <v>50</v>
+      </c>
+      <c r="D225" t="s">
+        <v>79</v>
+      </c>
+      <c r="E225" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>493</v>
+      </c>
+      <c r="B226" t="s">
+        <v>494</v>
+      </c>
+      <c r="C226">
+        <v>146</v>
+      </c>
+      <c r="D226" t="s">
+        <v>29</v>
+      </c>
+      <c r="E226" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>496</v>
+      </c>
+      <c r="B227" t="s">
+        <v>494</v>
+      </c>
+      <c r="C227">
+        <v>76</v>
+      </c>
+      <c r="D227" t="s">
+        <v>29</v>
+      </c>
+      <c r="E227" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>498</v>
+      </c>
+      <c r="B228" t="s">
+        <v>494</v>
+      </c>
+      <c r="C228">
+        <v>76</v>
+      </c>
+      <c r="D228" t="s">
+        <v>29</v>
+      </c>
+      <c r="E228" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>499</v>
+      </c>
+      <c r="B229" t="s">
+        <v>494</v>
+      </c>
+      <c r="C229">
+        <v>76</v>
+      </c>
+      <c r="D229" t="s">
+        <v>29</v>
+      </c>
+      <c r="E229" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B230" t="s">
+        <v>500</v>
+      </c>
+      <c r="C230" t="s">
+        <v>501</v>
+      </c>
+      <c r="D230" t="s">
+        <v>502</v>
+      </c>
+      <c r="E230" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>504</v>
+      </c>
+      <c r="B231" t="s">
+        <v>505</v>
+      </c>
+      <c r="C231">
+        <v>150</v>
+      </c>
+      <c r="D231" t="s">
+        <v>506</v>
+      </c>
+      <c r="E231" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>508</v>
+      </c>
+      <c r="B232" t="s">
+        <v>509</v>
+      </c>
+      <c r="C232">
+        <v>150</v>
+      </c>
+      <c r="D232" t="s">
+        <v>506</v>
+      </c>
+      <c r="E232" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>510</v>
+      </c>
+      <c r="B233" t="s">
+        <v>500</v>
+      </c>
+      <c r="C233" t="s">
+        <v>501</v>
+      </c>
+      <c r="D233" t="s">
+        <v>502</v>
+      </c>
+      <c r="E233" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>511</v>
+      </c>
+      <c r="B234" t="s">
+        <v>512</v>
+      </c>
+      <c r="E234" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>513</v>
+      </c>
+      <c r="B235" t="s">
+        <v>512</v>
+      </c>
+      <c r="E235" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>514</v>
+      </c>
+      <c r="B236" t="s">
+        <v>512</v>
+      </c>
+      <c r="E236" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>515</v>
+      </c>
+      <c r="B237" t="s">
+        <v>512</v>
+      </c>
+      <c r="E237" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>516</v>
+      </c>
+      <c r="B238" t="s">
+        <v>517</v>
+      </c>
+      <c r="E238" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>518</v>
+      </c>
+      <c r="B239" t="s">
+        <v>517</v>
+      </c>
+      <c r="E239" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>519</v>
+      </c>
+      <c r="B240" t="s">
+        <v>512</v>
+      </c>
+      <c r="E240" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>520</v>
+      </c>
+      <c r="B241" t="s">
+        <v>512</v>
+      </c>
+      <c r="E241" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>522</v>
+      </c>
+      <c r="B242" t="s">
+        <v>237</v>
+      </c>
+      <c r="E242" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>523</v>
+      </c>
+      <c r="B243" t="s">
+        <v>237</v>
+      </c>
+      <c r="E243" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="B244" t="s">
+        <v>525</v>
+      </c>
+      <c r="C244">
+        <v>20</v>
+      </c>
+      <c r="D244" t="s">
+        <v>272</v>
+      </c>
+      <c r="E244" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B245" t="s">
+        <v>528</v>
+      </c>
+      <c r="C245">
+        <v>50</v>
+      </c>
+      <c r="D245" t="s">
+        <v>29</v>
+      </c>
+      <c r="E245" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="B246" t="s">
+        <v>531</v>
+      </c>
+      <c r="C246">
+        <v>38</v>
+      </c>
+      <c r="D246" t="s">
+        <v>532</v>
+      </c>
+      <c r="E246" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B247" t="s">
+        <v>304</v>
+      </c>
+      <c r="C247">
+        <v>10</v>
+      </c>
+      <c r="D247" t="s">
+        <v>240</v>
+      </c>
+      <c r="E247" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="B248" t="s">
+        <v>535</v>
+      </c>
+      <c r="C248">
+        <v>10</v>
+      </c>
+      <c r="D248" t="s">
+        <v>240</v>
+      </c>
+      <c r="E248" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="B249" t="s">
+        <v>535</v>
+      </c>
+      <c r="C249">
+        <v>10</v>
+      </c>
+      <c r="D249" t="s">
+        <v>240</v>
+      </c>
+      <c r="E249" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B250" t="s">
+        <v>539</v>
+      </c>
+      <c r="C250">
+        <v>10</v>
+      </c>
+      <c r="D250" t="s">
+        <v>240</v>
+      </c>
+      <c r="E250" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="B251" t="s">
+        <v>542</v>
+      </c>
+      <c r="C251">
+        <v>10</v>
+      </c>
+      <c r="D251" t="s">
+        <v>240</v>
+      </c>
+      <c r="E251" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="B252" t="s">
+        <v>542</v>
+      </c>
+      <c r="C252">
+        <v>10</v>
+      </c>
+      <c r="D252" t="s">
+        <v>240</v>
+      </c>
+      <c r="E252" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="B253" t="s">
+        <v>547</v>
+      </c>
+      <c r="C253">
+        <v>10</v>
+      </c>
+      <c r="D253" t="s">
+        <v>240</v>
+      </c>
+      <c r="E253" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="B254" t="s">
+        <v>550</v>
+      </c>
+      <c r="C254">
+        <v>10</v>
+      </c>
+      <c r="D254" t="s">
+        <v>551</v>
+      </c>
+      <c r="E254" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="B255" t="s">
+        <v>313</v>
+      </c>
+      <c r="C255">
+        <v>20</v>
+      </c>
+      <c r="D255" t="s">
+        <v>551</v>
+      </c>
+      <c r="E255" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="B256" t="s">
+        <v>313</v>
+      </c>
+      <c r="C256">
+        <v>20</v>
+      </c>
+      <c r="D256" t="s">
+        <v>551</v>
+      </c>
+      <c r="E256" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B257" t="s">
+        <v>177</v>
+      </c>
+      <c r="E257" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B258" t="s">
+        <v>556</v>
+      </c>
+      <c r="E258" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B259" t="s">
+        <v>556</v>
+      </c>
+      <c r="E259" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="B260" t="s">
+        <v>558</v>
+      </c>
+      <c r="E260" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="B261" t="s">
+        <v>559</v>
+      </c>
+      <c r="E261" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="B262" t="s">
+        <v>560</v>
+      </c>
+      <c r="E262" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="B263" t="s">
+        <v>138</v>
+      </c>
+      <c r="E263" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B264" t="s">
+        <v>560</v>
+      </c>
+      <c r="E264" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B265" t="s">
+        <v>560</v>
+      </c>
+      <c r="E265" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B266" t="s">
+        <v>561</v>
+      </c>
+      <c r="E266" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B267" t="s">
+        <v>561</v>
+      </c>
+      <c r="E267" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B268" t="s">
+        <v>561</v>
+      </c>
+      <c r="E268" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B269" t="s">
+        <v>561</v>
+      </c>
+      <c r="E269" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A270" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E270" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B271" t="s">
+        <v>562</v>
+      </c>
+      <c r="E271" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B272" t="s">
+        <v>562</v>
+      </c>
+      <c r="E272" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A273" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B273" t="s">
+        <v>237</v>
+      </c>
+      <c r="C273">
+        <v>20</v>
+      </c>
+      <c r="E273">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A274" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B274" t="s">
+        <v>237</v>
+      </c>
+      <c r="C274">
+        <v>20</v>
+      </c>
+      <c r="E274">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>566</v>
+      </c>
+      <c r="B275" t="s">
+        <v>177</v>
+      </c>
+      <c r="C275">
+        <v>20</v>
+      </c>
+      <c r="E275">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>567</v>
+      </c>
+      <c r="B276" t="s">
+        <v>177</v>
+      </c>
+      <c r="C276">
+        <v>20</v>
+      </c>
+      <c r="E276">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B277" t="s">
+        <v>569</v>
+      </c>
+      <c r="C277">
+        <v>200</v>
+      </c>
+      <c r="D277" t="s">
+        <v>79</v>
+      </c>
+      <c r="E277">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>570</v>
+      </c>
+      <c r="B278" t="s">
+        <v>569</v>
+      </c>
+      <c r="C278">
+        <v>200</v>
+      </c>
+      <c r="D278" t="s">
+        <v>79</v>
+      </c>
+      <c r="E278">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>571</v>
+      </c>
+      <c r="B279" t="s">
+        <v>569</v>
+      </c>
+      <c r="C279">
+        <v>200</v>
+      </c>
+      <c r="D279" t="s">
+        <v>79</v>
+      </c>
+      <c r="E279">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>572</v>
+      </c>
+      <c r="B280" t="s">
+        <v>573</v>
+      </c>
+      <c r="C280">
+        <v>200</v>
+      </c>
+      <c r="D280" t="s">
+        <v>79</v>
+      </c>
+      <c r="E280">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>574</v>
+      </c>
+      <c r="B281" t="s">
+        <v>134</v>
+      </c>
+      <c r="C281">
+        <v>25</v>
+      </c>
+      <c r="D281" t="s">
+        <v>79</v>
+      </c>
+      <c r="E281">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>575</v>
+      </c>
+      <c r="B282" t="s">
+        <v>177</v>
+      </c>
+      <c r="C282">
+        <v>25</v>
+      </c>
+      <c r="D282" t="s">
+        <v>79</v>
+      </c>
+      <c r="E282">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>576</v>
+      </c>
+      <c r="B283" t="s">
+        <v>577</v>
+      </c>
+      <c r="C283">
+        <v>40</v>
+      </c>
+      <c r="D283" t="s">
+        <v>79</v>
+      </c>
+      <c r="E283">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>578</v>
+      </c>
+      <c r="B284" t="s">
+        <v>579</v>
+      </c>
+      <c r="C284">
+        <v>80</v>
+      </c>
+      <c r="D284" t="s">
+        <v>79</v>
+      </c>
+      <c r="E284">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>580</v>
+      </c>
+      <c r="B285" t="s">
+        <v>579</v>
+      </c>
+      <c r="C285">
+        <v>49</v>
+      </c>
+      <c r="D285" t="s">
+        <v>79</v>
+      </c>
+      <c r="E285" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>582</v>
+      </c>
+      <c r="B286" t="s">
+        <v>237</v>
+      </c>
+      <c r="C286">
+        <v>20</v>
+      </c>
+      <c r="D286" t="s">
+        <v>79</v>
+      </c>
+      <c r="E286">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>583</v>
+      </c>
+      <c r="B287" t="s">
+        <v>237</v>
+      </c>
+      <c r="C287">
+        <v>20</v>
+      </c>
+      <c r="D287" t="s">
+        <v>79</v>
+      </c>
+      <c r="E287">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B288" t="s">
+        <v>584</v>
+      </c>
+      <c r="C288">
+        <v>180</v>
+      </c>
+      <c r="D288" t="s">
+        <v>79</v>
+      </c>
+      <c r="E288" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>587</v>
+      </c>
+      <c r="B289" t="s">
+        <v>134</v>
+      </c>
+      <c r="E289" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>588</v>
+      </c>
+      <c r="B290" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>587</v>
+      </c>
+      <c r="B291" t="s">
+        <v>134</v>
+      </c>
+      <c r="E291" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>588</v>
+      </c>
+      <c r="B292" t="s">
+        <v>177</v>
+      </c>
+      <c r="E292" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>590</v>
+      </c>
+      <c r="B293" t="s">
+        <v>237</v>
+      </c>
+      <c r="E293" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>590</v>
+      </c>
+      <c r="B294" t="s">
+        <v>237</v>
+      </c>
+      <c r="E294" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>591</v>
+      </c>
+      <c r="B295" t="s">
+        <v>592</v>
+      </c>
+      <c r="E295" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>591</v>
+      </c>
+      <c r="B296" t="s">
+        <v>592</v>
+      </c>
+      <c r="E296" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>593</v>
+      </c>
+      <c r="B297" t="s">
+        <v>138</v>
+      </c>
+      <c r="E297" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>594</v>
+      </c>
+      <c r="B298" t="s">
+        <v>138</v>
+      </c>
+      <c r="E298" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>595</v>
+      </c>
+      <c r="B299" t="s">
+        <v>138</v>
+      </c>
+      <c r="E299" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>595</v>
+      </c>
+      <c r="B300" t="s">
+        <v>138</v>
+      </c>
+      <c r="E300" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>596</v>
+      </c>
+      <c r="B301" t="s">
+        <v>138</v>
+      </c>
+      <c r="E301" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A302" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B302" t="s">
+        <v>167</v>
+      </c>
+      <c r="E302" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A303" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B303" t="s">
+        <v>167</v>
+      </c>
+      <c r="E303" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A304" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B304" t="s">
+        <v>177</v>
+      </c>
+      <c r="E304" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A305" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B305" t="s">
+        <v>167</v>
+      </c>
+      <c r="E305" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A306" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B306" t="s">
+        <v>167</v>
+      </c>
+      <c r="E306" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A307" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B307" t="s">
+        <v>598</v>
+      </c>
+      <c r="E307" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A308" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B308" t="s">
+        <v>237</v>
+      </c>
+      <c r="E308" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A309" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B309" t="s">
+        <v>237</v>
+      </c>
+      <c r="E309" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A310" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B310" t="s">
+        <v>237</v>
+      </c>
+      <c r="E310" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>600</v>
+      </c>
+      <c r="B311" t="s">
+        <v>313</v>
+      </c>
+      <c r="C311">
+        <v>80</v>
+      </c>
+      <c r="D311" t="s">
+        <v>79</v>
+      </c>
+      <c r="E311">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>610</v>
+      </c>
+      <c r="B312" t="s">
+        <v>177</v>
+      </c>
+      <c r="E312" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>611</v>
+      </c>
+      <c r="B313" t="s">
+        <v>167</v>
+      </c>
+      <c r="E313" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>612</v>
+      </c>
+      <c r="B314" t="s">
+        <v>167</v>
+      </c>
+      <c r="E314" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>613</v>
+      </c>
+      <c r="B315" t="s">
+        <v>177</v>
+      </c>
+      <c r="E315" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>614</v>
+      </c>
+      <c r="B316" t="s">
+        <v>598</v>
+      </c>
+      <c r="E316" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>615</v>
+      </c>
+      <c r="B317" t="s">
+        <v>598</v>
+      </c>
+      <c r="E317" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>616</v>
+      </c>
+      <c r="B318" t="s">
+        <v>237</v>
+      </c>
+      <c r="E318" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>617</v>
+      </c>
+      <c r="B319" t="s">
+        <v>237</v>
+      </c>
+      <c r="E319" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>618</v>
+      </c>
+      <c r="B320" t="s">
+        <v>237</v>
+      </c>
+      <c r="E320" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>619</v>
+      </c>
+      <c r="B321" t="s">
+        <v>125</v>
+      </c>
+      <c r="E321" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>620</v>
+      </c>
+      <c r="B322" t="s">
+        <v>125</v>
+      </c>
+      <c r="E322" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>595</v>
+      </c>
+      <c r="B323" t="s">
+        <v>125</v>
+      </c>
+      <c r="E323" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>596</v>
+      </c>
+      <c r="B324" t="s">
+        <v>125</v>
+      </c>
+      <c r="E324" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>596</v>
+      </c>
+      <c r="B325" t="s">
+        <v>125</v>
+      </c>
+      <c r="E325" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>621</v>
+      </c>
+      <c r="B326" t="s">
+        <v>237</v>
+      </c>
+      <c r="C326">
+        <v>5</v>
+      </c>
+      <c r="D326" t="s">
+        <v>79</v>
+      </c>
+      <c r="E326" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>622</v>
+      </c>
+      <c r="B327" t="s">
+        <v>623</v>
+      </c>
+      <c r="D327" t="s">
+        <v>624</v>
+      </c>
+      <c r="E327" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>625</v>
+      </c>
+      <c r="B328" t="s">
+        <v>626</v>
+      </c>
+      <c r="D328" t="s">
+        <v>624</v>
+      </c>
+      <c r="E328" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>628</v>
+      </c>
+      <c r="B329" t="s">
+        <v>627</v>
+      </c>
+      <c r="D329" t="s">
+        <v>26</v>
+      </c>
+      <c r="E329" s="4">
+        <v>1.361</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E331" s="2"/>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python\parse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2623DB66-4876-44CD-A51D-320495B86A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07C1BC4-BFAF-475E-A62E-F685DFFD52F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12240" yWindow="348" windowWidth="13884" windowHeight="12096" xr2:uid="{9AEBC8E4-F5BA-4BD4-A5EC-AEF55CC360E4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1955" uniqueCount="1051">
   <si>
     <t>Наименование</t>
   </si>
@@ -1381,6 +1381,9 @@
   </si>
   <si>
     <t>Емкость V-805D</t>
+  </si>
+  <si>
+    <t>0,88</t>
   </si>
   <si>
     <t>Емкость V-805A</t>
@@ -1931,7 +1934,1270 @@
     <t>Нефть._x000D__x000D__x0007_</t>
   </si>
   <si>
+    <t>Нефть._x000D__x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,571</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>0,101</t>
+  </si>
+  <si>
+    <t>0,108</t>
+  </si>
+  <si>
     <t>Трубопровод Транспортировка товарной нефти от Т-100/1до печи Н-101</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка нефти от колонны Т-100/1 насосов до Р-100/1, Р-100/3.</t>
+  </si>
+  <si>
+    <t>Трубопровод нефти от насоса Р-100/3А до насоса Р-100/3В</t>
+  </si>
+  <si>
+    <t>Трубопровод нефти от насоса Р-100/3А,В до емкости V-100/2</t>
+  </si>
+  <si>
+    <t>Трубопровод нефти от емкости V-100/2 до насоса Р-100/3А,В.</t>
+  </si>
+  <si>
+    <t>Трубопровод нефти от насоса Р-100/А.В, до печи Н-100/1</t>
+  </si>
+  <si>
+    <t>1,57</t>
+  </si>
+  <si>
+    <t>0,189</t>
+  </si>
+  <si>
+    <t>Трубопровод нефти от печи Н-100/1 до колонны Т-100/1</t>
+  </si>
+  <si>
+    <t>Трубопровод Бензина от колонны Т-100/1 до Ас-100/1</t>
+  </si>
+  <si>
+    <t>Бензин._x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,484</t>
+  </si>
+  <si>
+    <t>Трубопровод Бензина от аппарата АС-100/1 до теплообменника Е-100/1 и до емкости V-100/1.</t>
+  </si>
+  <si>
+    <t>0,269</t>
+  </si>
+  <si>
+    <t>Трубопровод Бензина от емкости V-100/1 до насоса Р-100/2А.В.</t>
+  </si>
+  <si>
+    <t>0,116</t>
+  </si>
+  <si>
+    <t>Трубопровод Бензина от насоса Р-100/2А.В. до колонны Т-100/1 ( на 22-ю тарелку).</t>
+  </si>
+  <si>
+    <t>Трубопровод Бензина от колонны Т-100/1 до колонны Т-100/2.</t>
+  </si>
+  <si>
+    <t>0,038</t>
+  </si>
+  <si>
+    <t>0,034</t>
+  </si>
+  <si>
+    <t>Трубопровод Бензина от колонны Т-100/2 до рибойлера V-100/2 .</t>
+  </si>
+  <si>
+    <t>Трубопровод Бензина от рибойлера V-100/2 до колонны Т-100/2.</t>
+  </si>
+  <si>
+    <t>0,010</t>
+  </si>
+  <si>
+    <t>Трубопровод Бензина от рибойлера V-100/2 до аппарата охлаждения АС-100/2.</t>
+  </si>
+  <si>
+    <t>Трубопровод Бензина с аппарата V-100/4 в некондицию.</t>
+  </si>
+  <si>
+    <t>0,079</t>
+  </si>
+  <si>
+    <t>Трубопровод Бензина с аппарата охлаждения АС-100/2 в емкость V-100/3.</t>
+  </si>
+  <si>
+    <t>0,031</t>
+  </si>
+  <si>
+    <t>Трубопровод Бензина с емкость V-100/3 в емкость V-100/4 .</t>
+  </si>
+  <si>
+    <t>0,052</t>
+  </si>
+  <si>
+    <t>Трубопровод топливного газа в печь Н-100/1.</t>
+  </si>
+  <si>
+    <t>Газ._x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,020</t>
+  </si>
+  <si>
+    <t>Трубопровод сброса газов с аппаратов Т-100/1. V-100/1. V-100/2. V-100/1.</t>
+  </si>
+  <si>
+    <t>0,120</t>
+  </si>
+  <si>
+    <t>Трубопровод сброса газа на факел с емкости с V-100/1.</t>
+  </si>
+  <si>
+    <t>Трубопровод сброса газа на сероочистку с емкости V-100/1.</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов на свечу печей Н-101, 102/1 3/4"АV-1199 3/4"АV-1200</t>
+  </si>
+  <si>
+    <t>Топливный газ._x000D__x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,25</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов куба Т-101 до насос Р-102А,В. 4"-HL-1116 Транспортировка от Н-102 до Т-104 12"-HL-1118</t>
+  </si>
+  <si>
+    <t>Мазут._x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов насос Р-102А ,В до п. Н-102 уч-к 3"-HL-1117</t>
+  </si>
+  <si>
+    <t>0,452</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов V-103 до п. Н-102 уч-к 2"-HL-1170 V-102 до п. Н-101 уч-к 2"-HL-1182</t>
+  </si>
+  <si>
+    <t>Газ_x000D__x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,025</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов Т-104 до Е-110 уч-к 10"-HV-1119 Е-110 до Р-111 уч-к 2"-HL-1182</t>
+  </si>
+  <si>
+    <t>Газ_x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,063</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов Р-111до V-103 HL-1121 Е-110 до V-103 уч-к HL-1168</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов коллектор некондиции до уч-к 6”-HL -1101 уч-к 4"-HL-1124</t>
+  </si>
+  <si>
+    <t>Жидкие углеводороды_x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,54</t>
+  </si>
+  <si>
+    <t>0,507</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов коллектор некондиции до уч-к 4”-HL -1124 уч-к 4"-HL-1216</t>
+  </si>
+  <si>
+    <t>0,73</t>
+  </si>
+  <si>
+    <t>0,516</t>
+  </si>
+  <si>
+    <t>Трубопровод уч-к 2"-PW-1171 насос Р-116А,В  бар.ем. ТК-101 уч-к 2"-PW-1172 бар.ем. ТК-101 насос Р-107А,В уч-к 3"-PW-1202 сеп.V-103  насос Р-116А,В уч-к 1"-DL-1198 сеп.V-103  ем.ТК-101</t>
+  </si>
+  <si>
+    <t>Загрязненная вода._x000D__x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Трубопровод. уч-к 2"-PW-1196 м.тр.пр.т-к Е-111 Р-111А,В</t>
+  </si>
+  <si>
+    <t>Загрязненная вода._x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Трубопровод. уч-к 1"-AV-1189 ППК PSV-108 (Е-107) </t>
+  </si>
+  <si>
+    <t>Трубопровод. уч-к 1 ½"-PW-1177 уч-к 11/2 ”-PW - 1176 ТСЦ</t>
+  </si>
+  <si>
+    <t>Трубопровод. уч-к PW-1175 обес.V-101 м.тр.пр. т-к Е-107 уч-к PW-1176 м.тр.пр. т-к Е-107 уч-к 11/2 ”-PW – 1177 уч-к PW-1178 уч-к 11/2 ”-PW - 1173 уч-к 6”-HL-1101</t>
+  </si>
+  <si>
+    <t>Трубопровод. уч-к PW-1173 Р-107 А,В уч-к 11/2 ”-PW-1203 уч-к PW-1174 уч-к 11/2 ”-PW - 1204 уч-к 4 ”-HL - 1205 уч-к 3"-PW-1203 уч-к 11/2”- PW - 1173 тр.пр.Е-107 уч-к 3"-PW-1204 тр.пр.т-к Е-107 11/2”-PW- 1174</t>
+  </si>
+  <si>
+    <t>2,41</t>
+  </si>
+  <si>
+    <t>Трубопровод. уч-к 6"-HL-1101 уч-к 1/4 насос Р-101 А,В</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов ППК PSV –101- кол Т-101 уч-к 3”-HL-1165</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов насос P-101A,B до Е-101 А,В уч-к 4"-HL-1102 м.тр.пр.Е-101А,В до м.тр.пр.Е- 102 А,В уч-к 4"-HL-1103 м.тр.пр.Е- 102A,B до тр.пр.Е- 103B уч-к 4"-HL-1104 ем. V- 101 до тр.пр.Е- 103A уч-к 4"-HL-1106 ем.V-101  ППК PSV -101 уч-к 3”-HL-1164</t>
+  </si>
+  <si>
+    <t>0,641</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов тр.пр.Е- 103B до ем. V-101 уч-к 4"-HL-1105 тр.пр.т-к Е-103А до тр.пр.т-к Е 104А, В уч-к 4"-HL-1107 тр.пр.т-к Е-104А,В до тр.пр.т-к Е 105А, В уч-к 4"-HL-1108 тр.пр.т-к Е-105А,В, С до тр.пр.т-к Е 106А, В уч-к 4"-HL-1109 тр.пр.т-к Е-106 А,В, до п.Н-101 уч-к 6"-HL-1110</t>
+  </si>
+  <si>
+    <t>Нефть_x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>1,68</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов кол.Т-104 до насос Р-109А,В уч-к 6"-HL-1132</t>
+  </si>
+  <si>
+    <t>Газойль_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>168,3</t>
+  </si>
+  <si>
+    <t>0,392</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов насос Р-115 до кол. Т-104 уч-к 4"-HL-1149</t>
+  </si>
+  <si>
+    <t>0,199</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов насос Р-109А,В до уч-к 3”-HL-1131 уч-к 4"-HL-1133 уч-к 4”/3”-HL - 1133 до м.тр.пр.т-к Е-105А,В,С уч-к 4"-HL-1153 уч-к 4”/3”-HL - 1133 до кол.Т-104 уч-к 2"-HL-1156 насос Р-115, уч-к 4”-HL-1133 до тр.пр.т-к Е-101А,В уч-к 3”-HL-1150 м.тр.пр.т-к Е-105А,В,С до пароген. Е-113 уч-к 4"-HL-1154 пароген. Е-113 до кол.Т104 уч-к 4"-HL-1155 уч-к 4”-HL-1155 до уч-к 3”-HL- 7143 уч-к 1 ½"-HL-1219 уч-к 1 1/2”-HL - 1219 до уч-к 3”-HL-7113 уч-к 1 ½"-HL-1220</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов тр.пр.т-к Е-101А,В до уч-к 3”-HL - 1152 уч-к 3”-HL-1151 уч-к 3”-HL - 1151 до кол. Т-104 уч-к 3”-HL-1152 3”-HL-1151 до 4”-HL-1135 уч-к 2"-HL-1166</t>
+  </si>
+  <si>
+    <t>0,56</t>
+  </si>
+  <si>
+    <t>0,441</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов куб Т-104 до насос Р-108 уч-к 4"-HL-1157</t>
+  </si>
+  <si>
+    <t>Гудрон_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов насос Р-108 до м.тр.пр.т-к Е-106А,В уч-к 3”-HL-1158 уч-к 4”-HL -1154 до пароген. Е-112 уч-к 3”-HL-1159 уч-к 11/2”-HL-1161 до кол. Т-104 уч-к 2"-HL-1201</t>
+  </si>
+  <si>
+    <t>Гудрон_x000D__x000D__x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,94</t>
+  </si>
+  <si>
+    <t>0,928</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов м.тр.пр.т-к Е-106А,В до м.тр.пр.т-к Е-702 уч-к 3”-HL-1160 уч-к 3”-HL-1160 до уч-к 2”HL-1201 уч-к 1 ½"-HL-1161 уч-к 3”-HL-7113 до уч-к 4”-HL1216 уч-к 2"-HL-1205</t>
+  </si>
+  <si>
+    <t>Гудрон_x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,795</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов кол.Т-101 до т-к. АС-109 уч-к 12"-HL-1112</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов т-к. АС-109 до ем. V-102 уч-к 8"-HL-1113 ем. V-102 до насос P-106А,В уч-к 4"-HL-1114</t>
+  </si>
+  <si>
+    <t>0,03</t>
+  </si>
+  <si>
+    <t>0,809</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов уч-к 3”-HL-1115 насос Р-106А,В кол.T-101 уч-к 3”-HL-1137 уч-к 3”- НL-1115 уч 2/4 уч-к 2"-HL-1138 уч-к 3”/2”-HL-1137 ем. V-301 уч-к 2"-HL-1139 уч-к 3”/2”-HL-1137 уч-к 4”-HL-1124</t>
+  </si>
+  <si>
+    <t>0,52</t>
+  </si>
+  <si>
+    <t>1,17</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов 13 т.кол.Т-101 до насос Р-104А,В уч-к 8"-HL-1125 уч-к 8”-HL-1125до кол. Т-102 уч-к 3”-HL-1140 кол. Т-102 до насос Р-105 А,В уч-к 3”-HL-1141 кол.Т-102 до кол. Т-101 уч-к 4"-HL-1167</t>
+  </si>
+  <si>
+    <t>0,996</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов насос Р-104А,В до м.тр.пр.т-к Е-103А уч-к 4"-HL-1126 м.тр.пр.т-к Е-103А до м.тр.пр.т-к Е-103В уч-к 6"-HL-1127 м.тр.пр.т-к Е-103В до кол. Т-101 уч-к 4"-HL-1128</t>
+  </si>
+  <si>
+    <t>0,544</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов насос Р-105 А,В до тр.пр. т-к Е-102А,В уч-к 3”-HL-1142</t>
+  </si>
+  <si>
+    <t>0,167</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов тр.пр. т-к Е-102А,В до АС-108 А уч-к 3”-HL-1143 т-к АС-108 А до уч-к 3/4 уч-к 3”-HL-1144 уч-к 3”-HL - 1144 до ем. V-705 уч-к 2"-HL-1145 3”-HL - 1143 до 3”-HL – 1117 уч-к 1 ½"-HL-1146 1 1/2”-HL-1146 до 1 1/2”-HL-1117 уч-к 1 ½"-HL-1147 1 1/2”-HL-1146 до 4”-HL-1157 уч-к 1 ½"-HL-1148</t>
+  </si>
+  <si>
+    <t>0,6,4</t>
+  </si>
+  <si>
+    <t>0,640</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов гл.т.кол.Т-101 до насос Р-103 А,В уч-к 3”-HL-1129</t>
+  </si>
+  <si>
+    <t>Газойль_x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,142</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов насос Р-103 А,В до кол.Т-101 уч-к 3”-HL-1130 уч-к 3 ”-HL – 1130 до м.тр.пр.т-к Е-104А,В уч-к 3”-HL-1131</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов м.тр.пр.т-к Е-104А,В до т-к АС-108В уч-к 3”-HL-1134 уч-к 2 ”-HL - 1131 до уч-к 3”-HL – 1154 уч-к 1 ½"-HL-1163</t>
+  </si>
+  <si>
+    <t>Газойль_x000D__x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,206</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов 3 ”-HL - 1135 до 4”-HL – 1124 уч-к 3”-HL-1136</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов т-к АС-108В до уч-к 4/1 уч-к 4”-HL-1135</t>
+  </si>
+  <si>
+    <t>Трубопровод Транспортировка углеводородов т-к Е-112 до уч-к 4” HL-1155 уч-к 3”-HL-1227 3” HL-1133 до пробоотборник уч-к ½"-HL-1228</t>
+  </si>
+  <si>
+    <t>0,012</t>
+  </si>
+  <si>
+    <t>Трубопровод «Топливный газ в емкость V-207»</t>
+  </si>
+  <si>
+    <t>Топливный газ_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,036</t>
+  </si>
+  <si>
+    <t>Трубопровод «Топливный газ от электрозадвижки</t>
+  </si>
+  <si>
+    <t>0,007</t>
+  </si>
+  <si>
+    <t>Трубопровод «Газ на сжигание от трехходовых клапанов NV-2505, NV-2506 до печи Н-202»</t>
+  </si>
+  <si>
+    <t>Углеводородный газ_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Трубопровод «Газ на факел от PV-2365.2, ППК Т-202, ППК Т-203, ППК V-207,NV-2505, NV-2506, электрозадвижек</t>
+  </si>
+  <si>
+    <t>0,137</t>
+  </si>
+  <si>
+    <t>0,0003</t>
+  </si>
+  <si>
+    <t>Трубопровод «Стабильный катализат от секции 200 до Е - 205»</t>
+  </si>
+  <si>
+    <t>Стабильный катализат_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,222</t>
+  </si>
+  <si>
+    <t>Трубопровод «Стабильный катализат от Е-205 до Т-202»</t>
+  </si>
+  <si>
+    <t>0,048</t>
+  </si>
+  <si>
+    <t>Трубопровод «Кубовый продукт от Т-202 до Р-207/1,2»</t>
+  </si>
+  <si>
+    <t>Трубопровод «Кубовый продукт от Р – 207/А, В до Е – 206»</t>
+  </si>
+  <si>
+    <t>0,053</t>
+  </si>
+  <si>
+    <t>Трубопровод «Кубовый продукт Т-202 от Е-206 до Т-203»</t>
+  </si>
+  <si>
+    <t>0,043</t>
+  </si>
+  <si>
+    <t>Трубопровод «Кубовый продукт от Т-202 до Е-207»</t>
+  </si>
+  <si>
+    <t>Трубопровод «Пары бензольного концентрата от Т-203 до АС-204»</t>
+  </si>
+  <si>
+    <t>Пары бензольного концентрата_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,133</t>
+  </si>
+  <si>
+    <t>Трубопровод «Бензольного концентрата от АС-204 до V-206»</t>
+  </si>
+  <si>
+    <t>Трубопровод «Пары бензольного концентрата от V-206 до NV-2506»</t>
+  </si>
+  <si>
+    <t>Трубопровод «Бензольный концентрат от V-206 до Р-209/А, В»</t>
+  </si>
+  <si>
+    <t>Трубопровод «Бензольный концентрат от Р-209/А, В до Т-203, Е-9/2»</t>
+  </si>
+  <si>
+    <t>Трубопровод «Безбензольного компонента товарного бензина от Т-202 до АС-203/1, 2»</t>
+  </si>
+  <si>
+    <t>Пары бензина_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,215</t>
+  </si>
+  <si>
+    <t>Трубопровод «Безбензольный компонент товарного бензина от АС-203/1, 2 до V-205»</t>
+  </si>
+  <si>
+    <t>Безбензольный компонент товарного бензина_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,098</t>
+  </si>
+  <si>
+    <t>Трубопровод «Пары безбензольного компонента товарного бензина от V-205до NV-2505»</t>
+  </si>
+  <si>
+    <t>Трубопровод «Безбензольный компонент товарного бензина от V-205 до Р-208/А, В»</t>
+  </si>
+  <si>
+    <t>Легкий бензин_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,059</t>
+  </si>
+  <si>
+    <t>Трубопровод «Безбензольный компонент товарного бензина от Р-208/А, В до Т-202, запорной арматуры</t>
+  </si>
+  <si>
+    <t>0,065</t>
+  </si>
+  <si>
+    <t>0,050</t>
+  </si>
+  <si>
+    <t>Трубопровод «Компонент товарного бензина от Р – 210/А, В до Е – 205»</t>
+  </si>
+  <si>
+    <t>Трубопровод «Безбензольный компонент товарного бензина от Е-205 до АС-202»</t>
+  </si>
+  <si>
+    <t>0,018</t>
+  </si>
+  <si>
+    <t>Трубопровод «Безбензольный компонент товарного бензина от АС-202 на С-900»</t>
+  </si>
+  <si>
+    <t>0,224</t>
+  </si>
+  <si>
+    <t>Трубопровод «Безбензольный компонент товарного бензина от Т-203 до Е-208»</t>
+  </si>
+  <si>
+    <t>Трубопровод «Безбензольный компонент товарного бензина от Е-208 до Т-203»</t>
+  </si>
+  <si>
+    <t>Трубопровод «Дизельное топливо из заводской сети, Е-207, Е-208 до V-207»</t>
+  </si>
+  <si>
+    <t>Дизельное топливо_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Трубопровод «Дизельное топливо от Н-202 до Е-207, Е-208, TV-2259, TV-2271»</t>
+  </si>
+  <si>
+    <t>Трубопровод «Дизельное топливо от V-207 до Р-211/А, В»</t>
+  </si>
+  <si>
+    <t>Трубопровод «Некондиционный продукт от л. 8.12-8, 8.13-8, 8.13-12, Р-212 в заводскую сеть»</t>
+  </si>
+  <si>
+    <t>Дизельное топливо, бензин_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,247</t>
+  </si>
+  <si>
+    <t>Трубопровод «Дренаж в V-208»</t>
+  </si>
+  <si>
+    <t>Трубопровод «Дренаж от л. 8.2-10 до V-209»</t>
+  </si>
+  <si>
+    <t>0,227</t>
+  </si>
+  <si>
+    <t>Трубопровод «Антифриз прямой из заводской сети до Р-207/А, В, Р-210/А, В, Р-211/А, В»</t>
+  </si>
+  <si>
+    <t>0,364</t>
+  </si>
+  <si>
+    <t>Трубопровод «Антифриз обратный от до Р-207/А, В, Р-210/А, В, Р-211/А, В, в заводскую сеть»</t>
+  </si>
+  <si>
+    <t>0,372</t>
+  </si>
+  <si>
+    <t>Трубопровод линия 4.6-1 в Е-9/2 линия 4.6-2 в Е-9/3</t>
+  </si>
+  <si>
+    <t>Топливный газ_x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Трубопровод линия 4.8-1 до V-207 линия 4.8-2 до PV-2365.2</t>
+  </si>
+  <si>
+    <t>Трубопровод Газ на факел линия 4.9-1 от ППК Е-9/1 линия 4.9-2 от ППК Е-9/2</t>
+  </si>
+  <si>
+    <t>Трубопровод линия 8.11-1 отТ-202до Р-207/1,2</t>
+  </si>
+  <si>
+    <t>Кубовый продукт _x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Трубопровод линия 8.11-5 от Т-202 до Е-207</t>
+  </si>
+  <si>
+    <t>Трубопровод линия 8.11-4 от Е-207 до Т-202</t>
+  </si>
+  <si>
+    <t>Кубовый продукт _x000D__x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Трубопровод линия 8.13-6 от V-205 до Р-208/А,В</t>
+  </si>
+  <si>
+    <t>Бензольный компонент товарного бензина_x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Трубопровод линия 8.2-2 изогексановая фракция от Н-9/18 до Е-9/3</t>
+  </si>
+  <si>
+    <t>Изогексановая фракция _x000D_ _x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Трубопровод линия 8.2-4 изогексановая фракция от Е-9/3 до Н9/16,17</t>
+  </si>
+  <si>
+    <t>Изогексановая фракция _x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Трубопровод линия 8.2-5 изогексановая фракция от Н-9/16,17 до СМ-9/3,4 линия 8.2-6</t>
+  </si>
+  <si>
+    <t>8,6</t>
+  </si>
+  <si>
+    <t>Трубопровод линия 8.13-2 моющая присадка от БР-1 до узла смешения</t>
+  </si>
+  <si>
+    <t>Трубопровод Закачка ингибитора каррозии в блок реагента БР-2</t>
+  </si>
+  <si>
+    <t>Моющая присадка</t>
+  </si>
+  <si>
+    <t>Трубопровод Закачка нейтрализатора в блок реагента БР-3</t>
+  </si>
+  <si>
+    <t>Нейтрализатор</t>
+  </si>
+  <si>
+    <t>Трубопровод Воздушка с емкостей V-120,V-121,V-122.</t>
+  </si>
+  <si>
+    <t>Газ</t>
+  </si>
+  <si>
+    <t>Трубопровод Дренаж аппаратов и трубопроводов Среда: водородсодержащий газ _x0007_Р = 0,003Мпа Длина = 6м. Диаметр = 108 мм Длина = 3м. Диаметр = 219 мм Изг: 2016 Год ввода в эксплуатацию:2016 Воспламеняющиеся и горючие газы: 0,025т. _x0007_</t>
+  </si>
+  <si>
+    <t>водородсодержащий газ</t>
+  </si>
+  <si>
+    <t>Трубопровод Закачка деэмульгатора в блок реогента БР-3</t>
+  </si>
+  <si>
+    <t>Трубопровод «Свеча от компрессоров К-201А/B »</t>
+  </si>
+  <si>
+    <t>0,000025</t>
+  </si>
+  <si>
+    <t>Трубопровод «Сброс от компрессоров К-201А/B на свечу »</t>
+  </si>
+  <si>
+    <t>Трубопровод «от PV 2311 до V-502»</t>
+  </si>
+  <si>
+    <t>0,0003469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">водородсодержащий газ + углеводородный газ </t>
+  </si>
+  <si>
+    <t>Трубопровод «от FT 2411 - FT2461 до врезки в линию от V-100/4 до V-100/5»</t>
+  </si>
+  <si>
+    <t>Трубопровод «от реактора R-201 до печь Н-201В»</t>
+  </si>
+  <si>
+    <t>2,19</t>
+  </si>
+  <si>
+    <t>0,495</t>
+  </si>
+  <si>
+    <t>водородсодержащий газ + бензин</t>
+  </si>
+  <si>
+    <t>Трубопровод «от печи Н-201B до реактора R-202»</t>
+  </si>
+  <si>
+    <t>2,15</t>
+  </si>
+  <si>
+    <t>0,473</t>
+  </si>
+  <si>
+    <t>Трубопровод «от реактора R-202 до печь Н-201С»</t>
+  </si>
+  <si>
+    <t>0,527</t>
+  </si>
+  <si>
+    <t>Трубопровод «от печи Н-201С до реактора R-203»</t>
+  </si>
+  <si>
+    <t>2,05</t>
+  </si>
+  <si>
+    <t>0,539</t>
+  </si>
+  <si>
+    <t>Трубопровод «от реактора R-203 до труб. прост. теплообмен. Е-202»</t>
+  </si>
+  <si>
+    <t>1,99</t>
+  </si>
+  <si>
+    <t>0,814</t>
+  </si>
+  <si>
+    <t>1,94</t>
+  </si>
+  <si>
+    <t>0,092</t>
+  </si>
+  <si>
+    <t>Трубопровод «тр.пр.т-к Е -204→тр.пр.т-к Е -202»</t>
+  </si>
+  <si>
+    <t>1,84</t>
+  </si>
+  <si>
+    <t>0,114</t>
+  </si>
+  <si>
+    <t>Трубопровод «тр.пр.т-к Е -201→ АС -201А»</t>
+  </si>
+  <si>
+    <t>0,688</t>
+  </si>
+  <si>
+    <t>Трубопровод «т-к АС -201А → сеп. V -201»</t>
+  </si>
+  <si>
+    <t>0,181</t>
+  </si>
+  <si>
+    <t>Трубопровод «сеп. V -201→ уч-к 3"-HL-2112»</t>
+  </si>
+  <si>
+    <t>1,86</t>
+  </si>
+  <si>
+    <t>0,0165</t>
+  </si>
+  <si>
+    <t>Трубопровод «тр.пр.т-к Е -203А→кол.Т-201»</t>
+  </si>
+  <si>
+    <t>1,42</t>
+  </si>
+  <si>
+    <t>0,110</t>
+  </si>
+  <si>
+    <t>деэмульгатор</t>
+  </si>
+  <si>
+    <t>Трубопровод «уч-к 8"-HV-2149→ уч-к 1"-HL-2134»</t>
+  </si>
+  <si>
+    <t>0,00011</t>
+  </si>
+  <si>
+    <t>Трубопровод «уч-к 3"-HL-2111→ тр.пр.т-к Е -203В»</t>
+  </si>
+  <si>
+    <t>1,52</t>
+  </si>
+  <si>
+    <t>0,0011</t>
+  </si>
+  <si>
+    <t>углеводороды жидкие бензин</t>
+  </si>
+  <si>
+    <t>Трубопровод «сеп.V -201 → уч-к 1"-HL-2124»</t>
+  </si>
+  <si>
+    <t>0,00082</t>
+  </si>
+  <si>
+    <t>Трубопровод «уч-к 1"-HL-2123→ уч-к 3"-HL-2111»</t>
+  </si>
+  <si>
+    <t>0,0023</t>
+  </si>
+  <si>
+    <t>Трубопровод «уч-к 1"-HL-2140→насос Р-204»</t>
+  </si>
+  <si>
+    <t>0,0061</t>
+  </si>
+  <si>
+    <t>водный раствор щелочи</t>
+  </si>
+  <si>
+    <t>Трубопровод «насос Р-204→ уч-к 8"-HV-2109»</t>
+  </si>
+  <si>
+    <t>углеводороды жидкие бензин_x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Трубопровод «гл.тар. Т-201→исп. Е-204»</t>
+  </si>
+  <si>
+    <t>0,061</t>
+  </si>
+  <si>
+    <t>Трубопровод «исп. Е-204→куб Т-201»</t>
+  </si>
+  <si>
+    <t>0,112</t>
+  </si>
+  <si>
+    <t>Трубопровод «тр. пр. т-к Е-203 А → куб кол. Т-201»</t>
+  </si>
+  <si>
+    <t>Трубопровод «тр. пр. т-к Е-203 В → т-к АС-201 С»</t>
+  </si>
+  <si>
+    <t>Трубопровод «т-к АС-201 С→ уч-к 2/1»</t>
+  </si>
+  <si>
+    <t>0,97</t>
+  </si>
+  <si>
+    <t>0,184</t>
+  </si>
+  <si>
+    <t>Трубопровод «уч-к 2"-HL-2118→уч-к 1 1/2"-HL-2113»</t>
+  </si>
+  <si>
+    <t>0,017</t>
+  </si>
+  <si>
+    <t>Трубопровод «уч-к 1 1/2"-HL-2150→уч-к 3"-HL-3137»</t>
+  </si>
+  <si>
+    <t>Трубопровод «кол. Т-201→ т-к АС-201 В»</t>
+  </si>
+  <si>
+    <t>углеводороды жидкие, газ, бензин _x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,171</t>
+  </si>
+  <si>
+    <t>1,06</t>
+  </si>
+  <si>
+    <t>0,143</t>
+  </si>
+  <si>
+    <t>Трубопровод «сеп. V-202 → насос Р-202 А,В»</t>
+  </si>
+  <si>
+    <t>0,0337</t>
+  </si>
+  <si>
+    <t>Трубопровод «насос Р-202 А,В → кол. Т-201»</t>
+  </si>
+  <si>
+    <t>1,31</t>
+  </si>
+  <si>
+    <t>0,0413</t>
+  </si>
+  <si>
+    <t>Трубопровод «уч-к 4"-FL-8282→ уч-к 2"-HV-2126»</t>
+  </si>
+  <si>
+    <t>водородсодержащий газ + бензин_x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,0577</t>
+  </si>
+  <si>
+    <t>Трубопровод «уч-к 2"-HV-2125→V-204»</t>
+  </si>
+  <si>
+    <t>0,754</t>
+  </si>
+  <si>
+    <t>Трубопровод «комп. К-201 В→ уч-к 2"-HV-2136»</t>
+  </si>
+  <si>
+    <t>водородсодержащий газ _x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>2,44</t>
+  </si>
+  <si>
+    <t>0,00009</t>
+  </si>
+  <si>
+    <t>Трубопровод «уч-к 2"-HV-2129 → уч-к 8"-HV-2109, уч-к 2"-HV-3106»</t>
+  </si>
+  <si>
+    <t>0,000072</t>
+  </si>
+  <si>
+    <t>Трубопровод «уч-к 6"-HV-2128 → сеп. V-304»</t>
+  </si>
+  <si>
+    <t>Трубопровод «комп. К-201 А → комп. К-201 В»</t>
+  </si>
+  <si>
+    <t>2,12</t>
+  </si>
+  <si>
+    <t>Трубопровод «уч-к 6"-HV-2128→ уч-к 6"-HV-2128, уч-к 6"-HV-2153»</t>
+  </si>
+  <si>
+    <t>0,00002</t>
+  </si>
+  <si>
+    <t>Трубопровод «печь Н-201А→ р. R-201»</t>
+  </si>
+  <si>
+    <t>водородсодержащий газ + бензин _x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>2,26</t>
+  </si>
+  <si>
+    <t>0,492</t>
+  </si>
+  <si>
+    <t>Трубопровод «м. тр. пр. т-к Е-201→ м. тр. пр. т-к Е-202»</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>0,195</t>
+  </si>
+  <si>
+    <t>Трубопровод «м.тр.пр.т-к Е-202→печь Н-201А»</t>
+  </si>
+  <si>
+    <t>2,33</t>
+  </si>
+  <si>
+    <t>Трубопровод «насос Р-201 А, В → уч-к 2"- HL-2136»</t>
+  </si>
+  <si>
+    <t>бензин _x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>3,01</t>
+  </si>
+  <si>
+    <t>0,0241</t>
+  </si>
+  <si>
+    <t>Трубопровод «уч-к 6"-HL-2129 →м. тр. пр. т-к Е-201»</t>
+  </si>
+  <si>
+    <t>2,54</t>
+  </si>
+  <si>
+    <t>0,0040</t>
+  </si>
+  <si>
+    <t>Трубопровод «уч-к 2"-HL-2135 → уч-к 3"- HL-2112»</t>
+  </si>
+  <si>
+    <t>Трубопровод «Свеча от отсекателя NV 3503 »</t>
+  </si>
+  <si>
+    <t>топливный газ_x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,000006</t>
+  </si>
+  <si>
+    <t>Трубопровод «ур.бач. ( К-301 А»</t>
+  </si>
+  <si>
+    <t>антифриз _x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,00243</t>
+  </si>
+  <si>
+    <t>0,0019</t>
+  </si>
+  <si>
+    <t>0,0024</t>
+  </si>
+  <si>
+    <t>0,0039</t>
+  </si>
+  <si>
+    <t>Трубопровод «кол. Т-301( насос Р-303 А, В»</t>
+  </si>
+  <si>
+    <t>углеводороды жидкие, бензин_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>Трубопровод «насос Р-303 А, В ( уч-к 3”- HL- 2112»</t>
+  </si>
+  <si>
+    <t>1,83</t>
+  </si>
+  <si>
+    <t>Трубопровод «верх Т-301 ( т-к АС-301 B»</t>
+  </si>
+  <si>
+    <t>углеводороды жидкие, бензин, газ _x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,362</t>
+  </si>
+  <si>
+    <t>Трубопровод «т-к АС -301В( ем.V-303»</t>
+  </si>
+  <si>
+    <t>0,92</t>
+  </si>
+  <si>
+    <t>Трубопровод «ем.V-303 ( насос Р-302 А, В»</t>
+  </si>
+  <si>
+    <t>0,029</t>
+  </si>
+  <si>
+    <t>Трубопровод «насос Р-302 А, В ( кол. Т-301»</t>
+  </si>
+  <si>
+    <t>0,0867</t>
+  </si>
+  <si>
+    <t>Трубопровод «емкость V-303( сеп. V-503»</t>
+  </si>
+  <si>
+    <t>углеводороды жидкие, газ_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>2,31</t>
+  </si>
+  <si>
+    <t>Трубопровод «1 ст.комп. К-301А ( емкость»</t>
+  </si>
+  <si>
+    <t>углеводороды жидкие, масло_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,04</t>
+  </si>
+  <si>
+    <t>Трубопровод «2 ст.комп. К-301А ( емкость»</t>
+  </si>
+  <si>
+    <t>Трубопровод «1 ст.комп. К-301B ( емкость»</t>
+  </si>
+  <si>
+    <t>Трубопровод «2 ст.комп. К-301B ( емкость»</t>
+  </si>
+  <si>
+    <t>Трубопровод «отс.зона V-301( уч-к 4”- PW-6115»</t>
+  </si>
+  <si>
+    <t>загрязненная вода_x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,36</t>
+  </si>
+  <si>
+    <t>0,055</t>
+  </si>
+  <si>
+    <t>Трубопровод «отс.зона V-302( уч-к 1”- PW-3147»</t>
+  </si>
+  <si>
+    <t>4,05</t>
+  </si>
+  <si>
+    <t>0,006</t>
+  </si>
+  <si>
+    <t>Трубопровод «отс.зона V-301( уч-к 4”- PW-1124»</t>
+  </si>
+  <si>
+    <t>Трубопровод «отс.зона V-303( уч-к 2”- PW-3125»</t>
+  </si>
+  <si>
+    <t>0,117</t>
+  </si>
+  <si>
+    <t>Трубопровод «р. R-301 ( тр.пр. т-к Е-302»</t>
+  </si>
+  <si>
+    <t>4,29</t>
+  </si>
+  <si>
+    <t>Трубопровод «тр.пр. т-к Е-302( тр.пр. т-к Е-301А,В»</t>
+  </si>
+  <si>
+    <t>4,19</t>
+  </si>
+  <si>
+    <t>Трубопровод «тр.пр. т-к Е-301 А,В ( АС-301 А»</t>
+  </si>
+  <si>
+    <t>4,08</t>
+  </si>
+  <si>
+    <t>Трубопровод «т-к АС-301 А ( сеп.V-302»</t>
+  </si>
+  <si>
+    <t>0,279</t>
+  </si>
+  <si>
+    <t>Трубопровод «сеп.V-302( уч-к 4”- HL-3116»</t>
+  </si>
+  <si>
+    <t>углеводороды жидкие, бензин_x000D__x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,0684</t>
+  </si>
+  <si>
+    <t>Трубопровод «тр.пр. т-к Е-301 А ( уч-к 4”- HL-3116»</t>
+  </si>
+  <si>
+    <t>0,0013</t>
+  </si>
+  <si>
+    <t>Трубопровод «уч-к 4”- HL-3115 ( м.тр.пр.т-к Е-304А,В,С»</t>
+  </si>
+  <si>
+    <t>1,28</t>
+  </si>
+  <si>
+    <t>0,102</t>
+  </si>
+  <si>
+    <t>Трубопровод «м.тр.пр.т-к Е-304А,В,С ( кол.Т-301»</t>
+  </si>
+  <si>
+    <t>1,21</t>
+  </si>
+  <si>
+    <t>0,103</t>
+  </si>
+  <si>
+    <t>Трубопровод «ем. V-301( насос Р-301А,В»</t>
+  </si>
+  <si>
+    <t>0,0367</t>
+  </si>
+  <si>
+    <t>Трубопровод «уч-к 2/6 ( ем.V-301»</t>
+  </si>
+  <si>
+    <t>0,044</t>
+  </si>
+  <si>
+    <t>Трубопровод «насос Р-301А,В ( м.тр.пр. т-к Е-301А,В »</t>
+  </si>
+  <si>
+    <t>4,61</t>
+  </si>
+  <si>
+    <t>Трубопровод «м.тр.пр. т-к Е-301А,В ( п.Н-301»</t>
+  </si>
+  <si>
+    <t>Трубопровод «п.Н-301( реактор R-301»</t>
+  </si>
+  <si>
+    <t>0,217</t>
+  </si>
+  <si>
+    <t>Трубопровод «уч-к 2”-HL-3108 ( 4”-HL-3116»</t>
+  </si>
+  <si>
+    <t>углеводороды жидкие, бензин _x000D__x0007_</t>
+  </si>
+  <si>
+    <t>0,00172</t>
+  </si>
+  <si>
+    <t>Трубопровод «сеп. V-304 ( комп.К-301А,В»</t>
+  </si>
+  <si>
+    <t>0,000032</t>
+  </si>
+  <si>
+    <t>Трубопровод «наг.I ст.комп.К-301А,В( т-к АС-302»</t>
+  </si>
+  <si>
+    <t>3,25</t>
+  </si>
+  <si>
+    <t>0,000057</t>
+  </si>
+  <si>
+    <t>Трубопровод «т-к АС-302 ( сеп.V-305»</t>
+  </si>
+  <si>
+    <t>3,24</t>
+  </si>
+  <si>
+    <t>Трубопровод «сеп.V-305( всас 2ст. комп.К301А,В»</t>
+  </si>
+  <si>
+    <t>Трубопровод «уч-к 2 ”-HV - 3102 (К-301А) ( ППК PSV-304»</t>
+  </si>
+  <si>
+    <t>0,00000004</t>
+  </si>
+  <si>
+    <t>Трубопровод «уч-к 2 ”-HV - 3102 (К-301В) ( ППК PSV-305»</t>
+  </si>
+  <si>
+    <t>0,000003</t>
+  </si>
+  <si>
+    <t>Трубопровод «уч-к 2 ”-HV-3105( уч-к 4 ”-HV-2132»</t>
+  </si>
+  <si>
+    <t>0,000007</t>
+  </si>
+  <si>
+    <t>Трубопровод «всас 2ст. комп.К301А,В ( уч-к 2 ”- HV - 3106»</t>
+  </si>
+  <si>
+    <t>4,82</t>
+  </si>
+  <si>
+    <t>0,000024</t>
+  </si>
+  <si>
+    <t>Трубопровод «уч-к 2 ”-HV-3105(уч-к6 ”-HV-3108»</t>
+  </si>
+  <si>
+    <t>0,000019</t>
+  </si>
+  <si>
+    <t>Трубопровод «уч-к 2 ”-HV-3105(К-301В)( ППК PSV-306»</t>
+  </si>
+  <si>
+    <t>Трубопровод «уч-к 2 ”-HV-3102(К-301В)( ППК PSV-305»</t>
+  </si>
+  <si>
+    <t>Трубопровод «куб Т-301 ( м.тр.пр.т-к Е-302»</t>
+  </si>
+  <si>
+    <t>0,0115</t>
+  </si>
+  <si>
+    <t>Трубопровод «м.тр.пр.т-к Е-302( кол.Т-301»</t>
+  </si>
+  <si>
+    <t>Трубопровод «м.тр.пр.т-к Е-302( тр.пр.т-к Е-304А,В,С»</t>
+  </si>
+  <si>
+    <t>Трубопровод «уч-к 3"-HL-3137 м.тр.пр.т-к Е-304С( насос Р-201 А, В»</t>
+  </si>
+  <si>
+    <t>0,89</t>
+  </si>
+  <si>
+    <t>0,192</t>
   </si>
 </sst>
 </file>
@@ -2322,10 +3588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4581F54E-6B8F-4241-AA30-E2924B08C381}">
-  <dimension ref="A1:E333"/>
+  <dimension ref="A1:E538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="B327" sqref="B326:B327"/>
+    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="B529" sqref="B529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5374,7 +6640,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B209" t="s">
         <v>238</v>
@@ -5391,7 +6657,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B210" t="s">
         <v>238</v>
@@ -5408,7 +6674,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B211" t="s">
         <v>138</v>
@@ -5417,35 +6683,35 @@
         <v>426</v>
       </c>
       <c r="D211" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E211" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B212" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C212" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D212" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E212" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B213" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C213">
         <v>65</v>
@@ -5459,10 +6725,10 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B214" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C214">
         <v>20</v>
@@ -5476,10 +6742,10 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B215" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C215">
         <v>20</v>
@@ -5493,21 +6759,21 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B216" t="s">
+        <v>469</v>
+      </c>
+      <c r="D216" t="s">
+        <v>467</v>
+      </c>
+      <c r="E216" t="s">
         <v>468</v>
-      </c>
-      <c r="D216" t="s">
-        <v>466</v>
-      </c>
-      <c r="E216" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B217" t="s">
         <v>138</v>
@@ -5518,52 +6784,52 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B218" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E218" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B219" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C219" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D219" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E219" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
+        <v>479</v>
+      </c>
+      <c r="B220" t="s">
+        <v>475</v>
+      </c>
+      <c r="C220" t="s">
+        <v>476</v>
+      </c>
+      <c r="D220" t="s">
+        <v>477</v>
+      </c>
+      <c r="E220" t="s">
         <v>478</v>
-      </c>
-      <c r="B220" t="s">
-        <v>474</v>
-      </c>
-      <c r="C220" t="s">
-        <v>475</v>
-      </c>
-      <c r="D220" t="s">
-        <v>476</v>
-      </c>
-      <c r="E220" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B221" t="s">
         <v>237</v>
@@ -5572,41 +6838,41 @@
         <v>215</v>
       </c>
       <c r="D221" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E221" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B222" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C222" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D222" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E222" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B223" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C223" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D223" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E223" t="s">
         <v>355</v>
@@ -5614,10 +6880,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B224" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C224">
         <v>38</v>
@@ -5626,15 +6892,15 @@
         <v>79</v>
       </c>
       <c r="E224" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B225" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C225">
         <v>50</v>
@@ -5643,15 +6909,15 @@
         <v>79</v>
       </c>
       <c r="E225" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B226" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C226">
         <v>146</v>
@@ -5660,15 +6926,15 @@
         <v>29</v>
       </c>
       <c r="E226" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B227" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C227">
         <v>76</v>
@@ -5677,15 +6943,15 @@
         <v>29</v>
       </c>
       <c r="E227" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B228" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C228">
         <v>76</v>
@@ -5694,15 +6960,15 @@
         <v>29</v>
       </c>
       <c r="E228" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B229" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C229">
         <v>76</v>
@@ -5716,16 +6982,16 @@
     </row>
     <row r="230" spans="1:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B230" t="s">
+        <v>501</v>
+      </c>
+      <c r="C230" t="s">
+        <v>502</v>
+      </c>
+      <c r="D230" t="s">
         <v>503</v>
-      </c>
-      <c r="B230" t="s">
-        <v>500</v>
-      </c>
-      <c r="C230" t="s">
-        <v>501</v>
-      </c>
-      <c r="D230" t="s">
-        <v>502</v>
       </c>
       <c r="E230" t="s">
         <v>352</v>
@@ -5733,50 +6999,50 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B231" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C231">
         <v>150</v>
       </c>
       <c r="D231" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E231" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B232" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C232">
         <v>150</v>
       </c>
       <c r="D232" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E232" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B233" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C233" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D233" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E233" t="s">
         <v>352</v>
@@ -5784,10 +7050,10 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B234" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E234" t="s">
         <v>154</v>
@@ -5795,10 +7061,10 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
+        <v>514</v>
+      </c>
+      <c r="B235" t="s">
         <v>513</v>
-      </c>
-      <c r="B235" t="s">
-        <v>512</v>
       </c>
       <c r="E235" t="s">
         <v>154</v>
@@ -5806,10 +7072,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B236" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E236" t="s">
         <v>154</v>
@@ -5817,10 +7083,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B237" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E237" t="s">
         <v>154</v>
@@ -5828,10 +7094,10 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B238" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E238" t="s">
         <v>154</v>
@@ -5839,10 +7105,10 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
+        <v>519</v>
+      </c>
+      <c r="B239" t="s">
         <v>518</v>
-      </c>
-      <c r="B239" t="s">
-        <v>517</v>
       </c>
       <c r="E239" t="s">
         <v>154</v>
@@ -5850,10 +7116,10 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B240" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E240" t="s">
         <v>154</v>
@@ -5861,18 +7127,18 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B241" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E241" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B242" t="s">
         <v>237</v>
@@ -5883,7 +7149,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B243" t="s">
         <v>237</v>
@@ -5894,10 +7160,10 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B244" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C244">
         <v>20</v>
@@ -5906,15 +7172,15 @@
         <v>272</v>
       </c>
       <c r="E244" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B245" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C245">
         <v>50</v>
@@ -5923,29 +7189,29 @@
         <v>29</v>
       </c>
       <c r="E245" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B246" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C246">
         <v>38</v>
       </c>
       <c r="D246" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E246" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B247" t="s">
         <v>304</v>
@@ -5957,15 +7223,15 @@
         <v>240</v>
       </c>
       <c r="E247" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B248" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C248">
         <v>10</v>
@@ -5974,15 +7240,15 @@
         <v>240</v>
       </c>
       <c r="E248" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B249" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C249">
         <v>10</v>
@@ -5991,15 +7257,15 @@
         <v>240</v>
       </c>
       <c r="E249" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B250" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C250">
         <v>10</v>
@@ -6008,15 +7274,15 @@
         <v>240</v>
       </c>
       <c r="E250" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B251" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C251">
         <v>10</v>
@@ -6025,15 +7291,15 @@
         <v>240</v>
       </c>
       <c r="E251" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B252" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C252">
         <v>10</v>
@@ -6042,15 +7308,15 @@
         <v>240</v>
       </c>
       <c r="E252" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B253" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C253">
         <v>10</v>
@@ -6059,29 +7325,29 @@
         <v>240</v>
       </c>
       <c r="E253" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B254" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C254">
         <v>10</v>
       </c>
       <c r="D254" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E254" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B255" t="s">
         <v>313</v>
@@ -6090,7 +7356,7 @@
         <v>20</v>
       </c>
       <c r="D255" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E255" t="s">
         <v>243</v>
@@ -6098,7 +7364,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B256" t="s">
         <v>313</v>
@@ -6107,7 +7373,7 @@
         <v>20</v>
       </c>
       <c r="D256" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E256" t="s">
         <v>243</v>
@@ -6115,7 +7381,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B257" t="s">
         <v>177</v>
@@ -6126,10 +7392,10 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B258" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E258" t="s">
         <v>154</v>
@@ -6137,10 +7403,10 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B259" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E259" t="s">
         <v>154</v>
@@ -6148,150 +7414,150 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B260" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E260" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B261" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E261" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B262" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E262" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B263" t="s">
         <v>138</v>
       </c>
       <c r="E263" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B264" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E264" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B265" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E265" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B266" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E266" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B267" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E267" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B268" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E268" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B269" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="E269" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E270" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B271" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E271" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B272" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E272" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B273" t="s">
         <v>237</v>
@@ -6305,7 +7571,7 @@
     </row>
     <row r="274" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B274" t="s">
         <v>237</v>
@@ -6319,7 +7585,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B275" t="s">
         <v>177</v>
@@ -6333,7 +7599,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B276" t="s">
         <v>177</v>
@@ -6347,10 +7613,10 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B277" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C277">
         <v>200</v>
@@ -6364,10 +7630,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
+        <v>571</v>
+      </c>
+      <c r="B278" t="s">
         <v>570</v>
-      </c>
-      <c r="B278" t="s">
-        <v>569</v>
       </c>
       <c r="C278">
         <v>200</v>
@@ -6381,10 +7647,10 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B279" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C279">
         <v>200</v>
@@ -6398,10 +7664,10 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B280" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C280">
         <v>200</v>
@@ -6415,7 +7681,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B281" t="s">
         <v>134</v>
@@ -6432,7 +7698,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B282" t="s">
         <v>177</v>
@@ -6449,10 +7715,10 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B283" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C283">
         <v>40</v>
@@ -6466,10 +7732,10 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B284" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C284">
         <v>80</v>
@@ -6483,10 +7749,10 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
+        <v>581</v>
+      </c>
+      <c r="B285" t="s">
         <v>580</v>
-      </c>
-      <c r="B285" t="s">
-        <v>579</v>
       </c>
       <c r="C285">
         <v>49</v>
@@ -6495,12 +7761,12 @@
         <v>79</v>
       </c>
       <c r="E285" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B286" t="s">
         <v>237</v>
@@ -6517,7 +7783,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B287" t="s">
         <v>237</v>
@@ -6534,10 +7800,10 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B288" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C288">
         <v>180</v>
@@ -6546,12 +7812,12 @@
         <v>79</v>
       </c>
       <c r="E288" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B289" t="s">
         <v>134</v>
@@ -6562,15 +7828,15 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B290" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B291" t="s">
         <v>134</v>
@@ -6581,18 +7847,18 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B292" t="s">
         <v>177</v>
       </c>
       <c r="E292" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B293" t="s">
         <v>237</v>
@@ -6603,7 +7869,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B294" t="s">
         <v>237</v>
@@ -6614,10 +7880,10 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B295" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E295" t="s">
         <v>121</v>
@@ -6625,10 +7891,10 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B296" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E296" t="s">
         <v>165</v>
@@ -6636,7 +7902,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B297" t="s">
         <v>138</v>
@@ -6647,7 +7913,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B298" t="s">
         <v>138</v>
@@ -6658,7 +7924,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B299" t="s">
         <v>138</v>
@@ -6669,7 +7935,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B300" t="s">
         <v>138</v>
@@ -6680,7 +7946,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B301" t="s">
         <v>138</v>
@@ -6691,106 +7957,106 @@
     </row>
     <row r="302" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B302" t="s">
         <v>167</v>
       </c>
       <c r="E302" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B303" t="s">
         <v>167</v>
       </c>
       <c r="E303" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B304" t="s">
         <v>177</v>
       </c>
       <c r="E304" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B305" t="s">
         <v>167</v>
       </c>
       <c r="E305" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B306" t="s">
         <v>167</v>
       </c>
       <c r="E306" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B307" t="s">
+        <v>599</v>
+      </c>
+      <c r="E307" t="s">
         <v>598</v>
-      </c>
-      <c r="E307" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B308" t="s">
         <v>237</v>
       </c>
       <c r="E308" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B309" t="s">
         <v>237</v>
       </c>
       <c r="E309" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B310" t="s">
         <v>237</v>
       </c>
       <c r="E310" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B311" t="s">
         <v>313</v>
@@ -6807,7 +8073,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B312" t="s">
         <v>177</v>
@@ -6818,7 +8084,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B313" t="s">
         <v>167</v>
@@ -6829,7 +8095,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B314" t="s">
         <v>167</v>
@@ -6840,7 +8106,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B315" t="s">
         <v>177</v>
@@ -6851,10 +8117,10 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B316" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E316" t="s">
         <v>131</v>
@@ -6862,10 +8128,10 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B317" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E317" t="s">
         <v>131</v>
@@ -6873,7 +8139,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B318" t="s">
         <v>237</v>
@@ -6884,7 +8150,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B319" t="s">
         <v>237</v>
@@ -6895,7 +8161,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B320" t="s">
         <v>237</v>
@@ -6906,7 +8172,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B321" t="s">
         <v>125</v>
@@ -6917,7 +8183,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B322" t="s">
         <v>125</v>
@@ -6928,7 +8194,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B323" t="s">
         <v>125</v>
@@ -6939,7 +8205,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B324" t="s">
         <v>125</v>
@@ -6950,7 +8216,7 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B325" t="s">
         <v>125</v>
@@ -6961,7 +8227,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B326" t="s">
         <v>237</v>
@@ -6978,27 +8244,27 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B327" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D327" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E327" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
+        <v>626</v>
+      </c>
+      <c r="B328" t="s">
+        <v>627</v>
+      </c>
+      <c r="D328" t="s">
         <v>625</v>
-      </c>
-      <c r="B328" t="s">
-        <v>626</v>
-      </c>
-      <c r="D328" t="s">
-        <v>624</v>
       </c>
       <c r="E328" t="s">
         <v>131</v>
@@ -7006,10 +8272,10 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
+        <v>634</v>
+      </c>
+      <c r="B329" t="s">
         <v>628</v>
-      </c>
-      <c r="B329" t="s">
-        <v>627</v>
       </c>
       <c r="D329" t="s">
         <v>26</v>
@@ -7018,11 +8284,2928 @@
         <v>1.361</v>
       </c>
     </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>635</v>
+      </c>
+      <c r="B330" t="s">
+        <v>629</v>
+      </c>
+      <c r="D330" t="s">
+        <v>356</v>
+      </c>
+      <c r="E330" t="s">
+        <v>630</v>
+      </c>
+    </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E331" s="2"/>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A333" s="3"/>
+      <c r="A331" t="s">
+        <v>636</v>
+      </c>
+      <c r="B331" t="s">
+        <v>628</v>
+      </c>
+      <c r="D331" t="s">
+        <v>220</v>
+      </c>
+      <c r="E331" s="4">
+        <v>1.1910000000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>637</v>
+      </c>
+      <c r="B332" t="s">
+        <v>628</v>
+      </c>
+      <c r="D332" t="s">
+        <v>631</v>
+      </c>
+      <c r="E332" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A333" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B333" t="s">
+        <v>628</v>
+      </c>
+      <c r="D333" t="s">
+        <v>220</v>
+      </c>
+      <c r="E333" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>639</v>
+      </c>
+      <c r="B334" t="s">
+        <v>628</v>
+      </c>
+      <c r="D334" t="s">
+        <v>640</v>
+      </c>
+      <c r="E334" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>642</v>
+      </c>
+      <c r="B335" t="s">
+        <v>628</v>
+      </c>
+      <c r="D335" t="s">
+        <v>356</v>
+      </c>
+      <c r="E335" s="4">
+        <v>3.0070000000000001</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>643</v>
+      </c>
+      <c r="B336" t="s">
+        <v>644</v>
+      </c>
+      <c r="D336" t="s">
+        <v>552</v>
+      </c>
+      <c r="E336" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>646</v>
+      </c>
+      <c r="B337" t="s">
+        <v>644</v>
+      </c>
+      <c r="D337" t="s">
+        <v>552</v>
+      </c>
+      <c r="E337" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>648</v>
+      </c>
+      <c r="B338" t="s">
+        <v>644</v>
+      </c>
+      <c r="D338" t="s">
+        <v>552</v>
+      </c>
+      <c r="E338" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>650</v>
+      </c>
+      <c r="B339" t="s">
+        <v>644</v>
+      </c>
+      <c r="D339" t="s">
+        <v>428</v>
+      </c>
+      <c r="E339" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>651</v>
+      </c>
+      <c r="B340" t="s">
+        <v>644</v>
+      </c>
+      <c r="D340" t="s">
+        <v>432</v>
+      </c>
+      <c r="E340" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>651</v>
+      </c>
+      <c r="B341" t="s">
+        <v>644</v>
+      </c>
+      <c r="D341" t="s">
+        <v>552</v>
+      </c>
+      <c r="E341" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>654</v>
+      </c>
+      <c r="B342" t="s">
+        <v>644</v>
+      </c>
+      <c r="D342" t="s">
+        <v>552</v>
+      </c>
+      <c r="E342" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>655</v>
+      </c>
+      <c r="B343" t="s">
+        <v>644</v>
+      </c>
+      <c r="D343" t="s">
+        <v>552</v>
+      </c>
+      <c r="E343" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>657</v>
+      </c>
+      <c r="B344" t="s">
+        <v>644</v>
+      </c>
+      <c r="D344" t="s">
+        <v>552</v>
+      </c>
+      <c r="E344" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>658</v>
+      </c>
+      <c r="B345" t="s">
+        <v>644</v>
+      </c>
+      <c r="D345" t="s">
+        <v>552</v>
+      </c>
+      <c r="E345" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>660</v>
+      </c>
+      <c r="B346" t="s">
+        <v>644</v>
+      </c>
+      <c r="D346" t="s">
+        <v>552</v>
+      </c>
+      <c r="E346" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>662</v>
+      </c>
+      <c r="B347" t="s">
+        <v>644</v>
+      </c>
+      <c r="D347" t="s">
+        <v>552</v>
+      </c>
+      <c r="E347" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>664</v>
+      </c>
+      <c r="B348" t="s">
+        <v>665</v>
+      </c>
+      <c r="D348">
+        <v>0.18</v>
+      </c>
+      <c r="E348" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>667</v>
+      </c>
+      <c r="B349" t="s">
+        <v>665</v>
+      </c>
+      <c r="D349">
+        <v>0.05</v>
+      </c>
+      <c r="E349" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>669</v>
+      </c>
+      <c r="B350" t="s">
+        <v>665</v>
+      </c>
+      <c r="D350">
+        <v>0.7</v>
+      </c>
+      <c r="E350" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>670</v>
+      </c>
+      <c r="B351" t="s">
+        <v>665</v>
+      </c>
+      <c r="D351">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>671</v>
+      </c>
+      <c r="B352" t="s">
+        <v>672</v>
+      </c>
+      <c r="D352" t="s">
+        <v>673</v>
+      </c>
+      <c r="E352" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>674</v>
+      </c>
+      <c r="B353" t="s">
+        <v>675</v>
+      </c>
+      <c r="D353" t="s">
+        <v>7</v>
+      </c>
+      <c r="E353" s="4">
+        <v>2.3639999999999999</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>676</v>
+      </c>
+      <c r="B354" t="s">
+        <v>675</v>
+      </c>
+      <c r="D354" t="s">
+        <v>26</v>
+      </c>
+      <c r="E354" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>678</v>
+      </c>
+      <c r="B355" t="s">
+        <v>679</v>
+      </c>
+      <c r="D355" t="s">
+        <v>79</v>
+      </c>
+      <c r="E355" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>681</v>
+      </c>
+      <c r="B356" t="s">
+        <v>682</v>
+      </c>
+      <c r="D356" t="s">
+        <v>79</v>
+      </c>
+      <c r="E356" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>684</v>
+      </c>
+      <c r="B357" t="s">
+        <v>682</v>
+      </c>
+      <c r="D357" t="s">
+        <v>79</v>
+      </c>
+      <c r="E357" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>685</v>
+      </c>
+      <c r="B358" t="s">
+        <v>686</v>
+      </c>
+      <c r="D358" t="s">
+        <v>687</v>
+      </c>
+      <c r="E358" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>689</v>
+      </c>
+      <c r="B359" t="s">
+        <v>686</v>
+      </c>
+      <c r="D359" t="s">
+        <v>690</v>
+      </c>
+      <c r="E359" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>692</v>
+      </c>
+      <c r="B360" t="s">
+        <v>693</v>
+      </c>
+      <c r="D360" t="s">
+        <v>7</v>
+      </c>
+      <c r="E360">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>694</v>
+      </c>
+      <c r="B361" t="s">
+        <v>695</v>
+      </c>
+      <c r="D361" t="s">
+        <v>7</v>
+      </c>
+      <c r="E361">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>696</v>
+      </c>
+      <c r="B362" t="s">
+        <v>695</v>
+      </c>
+      <c r="D362" t="s">
+        <v>7</v>
+      </c>
+      <c r="E362">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>697</v>
+      </c>
+      <c r="B363" t="s">
+        <v>695</v>
+      </c>
+      <c r="D363" t="s">
+        <v>90</v>
+      </c>
+      <c r="E363">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>698</v>
+      </c>
+      <c r="B364" t="s">
+        <v>695</v>
+      </c>
+      <c r="D364" t="s">
+        <v>76</v>
+      </c>
+      <c r="E364">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>699</v>
+      </c>
+      <c r="B365" t="s">
+        <v>695</v>
+      </c>
+      <c r="D365" t="s">
+        <v>700</v>
+      </c>
+      <c r="E365">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>701</v>
+      </c>
+      <c r="B366" t="s">
+        <v>628</v>
+      </c>
+      <c r="D366" t="s">
+        <v>7</v>
+      </c>
+      <c r="E366">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>702</v>
+      </c>
+      <c r="B367" t="s">
+        <v>134</v>
+      </c>
+      <c r="D367" t="s">
+        <v>7</v>
+      </c>
+      <c r="E367" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>703</v>
+      </c>
+      <c r="B368" t="s">
+        <v>134</v>
+      </c>
+      <c r="D368" t="s">
+        <v>196</v>
+      </c>
+      <c r="E368" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>705</v>
+      </c>
+      <c r="B369" t="s">
+        <v>706</v>
+      </c>
+      <c r="D369" t="s">
+        <v>707</v>
+      </c>
+      <c r="E369" s="4">
+        <v>2.3620000000000001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>708</v>
+      </c>
+      <c r="B370" t="s">
+        <v>709</v>
+      </c>
+      <c r="D370" t="s">
+        <v>710</v>
+      </c>
+      <c r="E370" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>712</v>
+      </c>
+      <c r="B371" t="s">
+        <v>709</v>
+      </c>
+      <c r="D371">
+        <v>108</v>
+      </c>
+      <c r="E371" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>714</v>
+      </c>
+      <c r="B372" t="s">
+        <v>709</v>
+      </c>
+      <c r="D372" t="s">
+        <v>428</v>
+      </c>
+      <c r="E372" s="4">
+        <v>1.0620000000000001</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>715</v>
+      </c>
+      <c r="B373" t="s">
+        <v>709</v>
+      </c>
+      <c r="D373" t="s">
+        <v>716</v>
+      </c>
+      <c r="E373" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>718</v>
+      </c>
+      <c r="B374" t="s">
+        <v>719</v>
+      </c>
+      <c r="D374" t="s">
+        <v>7</v>
+      </c>
+      <c r="E374" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>720</v>
+      </c>
+      <c r="B375" t="s">
+        <v>721</v>
+      </c>
+      <c r="D375" t="s">
+        <v>722</v>
+      </c>
+      <c r="E375" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>724</v>
+      </c>
+      <c r="B376" t="s">
+        <v>725</v>
+      </c>
+      <c r="D376" t="s">
+        <v>690</v>
+      </c>
+      <c r="E376" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>727</v>
+      </c>
+      <c r="B377" t="s">
+        <v>167</v>
+      </c>
+      <c r="D377" t="s">
+        <v>254</v>
+      </c>
+      <c r="E377" s="2">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>728</v>
+      </c>
+      <c r="B378" t="s">
+        <v>167</v>
+      </c>
+      <c r="D378" t="s">
+        <v>729</v>
+      </c>
+      <c r="E378" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>731</v>
+      </c>
+      <c r="B379" t="s">
+        <v>167</v>
+      </c>
+      <c r="D379" t="s">
+        <v>732</v>
+      </c>
+      <c r="E379" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>734</v>
+      </c>
+      <c r="B380" t="s">
+        <v>304</v>
+      </c>
+      <c r="D380" t="s">
+        <v>79</v>
+      </c>
+      <c r="E380" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>736</v>
+      </c>
+      <c r="B381" t="s">
+        <v>304</v>
+      </c>
+      <c r="D381" t="s">
+        <v>716</v>
+      </c>
+      <c r="E381" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>738</v>
+      </c>
+      <c r="B382" t="s">
+        <v>304</v>
+      </c>
+      <c r="D382" t="s">
+        <v>428</v>
+      </c>
+      <c r="E382" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>740</v>
+      </c>
+      <c r="B383" t="s">
+        <v>304</v>
+      </c>
+      <c r="D383" t="s">
+        <v>741</v>
+      </c>
+      <c r="E383" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>743</v>
+      </c>
+      <c r="B384" t="s">
+        <v>744</v>
+      </c>
+      <c r="D384" t="s">
+        <v>243</v>
+      </c>
+      <c r="E384" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>746</v>
+      </c>
+      <c r="B385" t="s">
+        <v>744</v>
+      </c>
+      <c r="D385" t="s">
+        <v>498</v>
+      </c>
+      <c r="E385" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>747</v>
+      </c>
+      <c r="B386" t="s">
+        <v>748</v>
+      </c>
+      <c r="D386" t="s">
+        <v>321</v>
+      </c>
+      <c r="E386" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>750</v>
+      </c>
+      <c r="B387" t="s">
+        <v>744</v>
+      </c>
+      <c r="D387" t="s">
+        <v>321</v>
+      </c>
+      <c r="E387" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>751</v>
+      </c>
+      <c r="B388" t="s">
+        <v>744</v>
+      </c>
+      <c r="D388" t="s">
+        <v>321</v>
+      </c>
+      <c r="E388">
+        <v>0.63500000000000001</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>752</v>
+      </c>
+      <c r="B389" t="s">
+        <v>744</v>
+      </c>
+      <c r="D389" t="s">
+        <v>321</v>
+      </c>
+      <c r="E389" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>754</v>
+      </c>
+      <c r="B390" t="s">
+        <v>755</v>
+      </c>
+      <c r="D390" t="s">
+        <v>29</v>
+      </c>
+      <c r="E390" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>757</v>
+      </c>
+      <c r="B391" t="s">
+        <v>755</v>
+      </c>
+      <c r="D391" t="s">
+        <v>29</v>
+      </c>
+      <c r="E391" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>759</v>
+      </c>
+      <c r="B392" t="s">
+        <v>760</v>
+      </c>
+      <c r="D392" t="s">
+        <v>729</v>
+      </c>
+      <c r="E392" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>761</v>
+      </c>
+      <c r="B393" t="s">
+        <v>760</v>
+      </c>
+      <c r="D393" t="s">
+        <v>7</v>
+      </c>
+      <c r="E393" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>761</v>
+      </c>
+      <c r="B394" t="s">
+        <v>760</v>
+      </c>
+      <c r="D394" t="s">
+        <v>7</v>
+      </c>
+      <c r="E394" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>761</v>
+      </c>
+      <c r="B395" t="s">
+        <v>760</v>
+      </c>
+      <c r="D395" t="s">
+        <v>7</v>
+      </c>
+      <c r="E395" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>761</v>
+      </c>
+      <c r="B396" t="s">
+        <v>760</v>
+      </c>
+      <c r="D396" t="s">
+        <v>7</v>
+      </c>
+      <c r="E396" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>761</v>
+      </c>
+      <c r="B397" t="s">
+        <v>760</v>
+      </c>
+      <c r="D397" t="s">
+        <v>7</v>
+      </c>
+      <c r="E397" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>764</v>
+      </c>
+      <c r="B398" t="s">
+        <v>765</v>
+      </c>
+      <c r="D398" t="s">
+        <v>507</v>
+      </c>
+      <c r="E398" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>767</v>
+      </c>
+      <c r="B399" t="s">
+        <v>765</v>
+      </c>
+      <c r="D399" t="s">
+        <v>29</v>
+      </c>
+      <c r="E399" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>769</v>
+      </c>
+      <c r="B400" t="s">
+        <v>177</v>
+      </c>
+      <c r="D400" t="s">
+        <v>29</v>
+      </c>
+      <c r="E400" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>770</v>
+      </c>
+      <c r="B401" t="s">
+        <v>177</v>
+      </c>
+      <c r="D401" t="s">
+        <v>29</v>
+      </c>
+      <c r="E401" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>772</v>
+      </c>
+      <c r="B402" t="s">
+        <v>177</v>
+      </c>
+      <c r="D402" t="s">
+        <v>272</v>
+      </c>
+      <c r="E402" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>774</v>
+      </c>
+      <c r="B403" t="s">
+        <v>177</v>
+      </c>
+      <c r="D403" t="s">
+        <v>29</v>
+      </c>
+      <c r="E403" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>775</v>
+      </c>
+      <c r="B404" t="s">
+        <v>776</v>
+      </c>
+      <c r="D404" t="s">
+        <v>29</v>
+      </c>
+      <c r="E404" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>778</v>
+      </c>
+      <c r="B405" t="s">
+        <v>529</v>
+      </c>
+      <c r="D405" t="s">
+        <v>29</v>
+      </c>
+      <c r="E405" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>779</v>
+      </c>
+      <c r="B406" t="s">
+        <v>529</v>
+      </c>
+      <c r="D406" t="s">
+        <v>29</v>
+      </c>
+      <c r="E406" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>780</v>
+      </c>
+      <c r="B407" t="s">
+        <v>529</v>
+      </c>
+      <c r="D407" t="s">
+        <v>29</v>
+      </c>
+      <c r="E407" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>781</v>
+      </c>
+      <c r="B408" t="s">
+        <v>529</v>
+      </c>
+      <c r="D408" t="s">
+        <v>272</v>
+      </c>
+      <c r="E408" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>782</v>
+      </c>
+      <c r="B409" t="s">
+        <v>783</v>
+      </c>
+      <c r="D409" t="s">
+        <v>29</v>
+      </c>
+      <c r="E409" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>785</v>
+      </c>
+      <c r="B410" t="s">
+        <v>786</v>
+      </c>
+      <c r="D410" t="s">
+        <v>29</v>
+      </c>
+      <c r="E410" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>788</v>
+      </c>
+      <c r="B411" t="s">
+        <v>760</v>
+      </c>
+      <c r="D411" t="s">
+        <v>29</v>
+      </c>
+      <c r="E411" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>789</v>
+      </c>
+      <c r="B412" t="s">
+        <v>790</v>
+      </c>
+      <c r="D412" t="s">
+        <v>29</v>
+      </c>
+      <c r="E412" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>792</v>
+      </c>
+      <c r="B413" t="s">
+        <v>790</v>
+      </c>
+      <c r="D413" t="s">
+        <v>272</v>
+      </c>
+      <c r="E413" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>792</v>
+      </c>
+      <c r="B414" t="s">
+        <v>177</v>
+      </c>
+      <c r="D414" t="s">
+        <v>29</v>
+      </c>
+      <c r="E414" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>795</v>
+      </c>
+      <c r="B415" t="s">
+        <v>177</v>
+      </c>
+      <c r="D415" t="s">
+        <v>272</v>
+      </c>
+      <c r="E415" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>796</v>
+      </c>
+      <c r="B416" t="s">
+        <v>177</v>
+      </c>
+      <c r="D416" t="s">
+        <v>272</v>
+      </c>
+      <c r="E416" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>798</v>
+      </c>
+      <c r="B417" t="s">
+        <v>177</v>
+      </c>
+      <c r="D417" t="s">
+        <v>29</v>
+      </c>
+      <c r="E417" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>800</v>
+      </c>
+      <c r="B418" t="s">
+        <v>177</v>
+      </c>
+      <c r="D418" t="s">
+        <v>29</v>
+      </c>
+      <c r="E418" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>801</v>
+      </c>
+      <c r="B419" t="s">
+        <v>177</v>
+      </c>
+      <c r="D419" t="s">
+        <v>29</v>
+      </c>
+      <c r="E419">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>802</v>
+      </c>
+      <c r="B420" t="s">
+        <v>803</v>
+      </c>
+      <c r="D420" t="s">
+        <v>272</v>
+      </c>
+      <c r="E420">
+        <v>1.1120000000000001</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>804</v>
+      </c>
+      <c r="B421" t="s">
+        <v>803</v>
+      </c>
+      <c r="D421" t="s">
+        <v>272</v>
+      </c>
+      <c r="E421">
+        <v>1.8640000000000001</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>805</v>
+      </c>
+      <c r="B422" t="s">
+        <v>803</v>
+      </c>
+      <c r="D422" t="s">
+        <v>29</v>
+      </c>
+      <c r="E422">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>805</v>
+      </c>
+      <c r="B423" t="s">
+        <v>803</v>
+      </c>
+      <c r="D423" t="s">
+        <v>272</v>
+      </c>
+      <c r="E423">
+        <v>1.1819999999999999</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>806</v>
+      </c>
+      <c r="B424" t="s">
+        <v>807</v>
+      </c>
+      <c r="D424" t="s">
+        <v>29</v>
+      </c>
+      <c r="E424" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>809</v>
+      </c>
+      <c r="B425" t="s">
+        <v>807</v>
+      </c>
+      <c r="D425" t="s">
+        <v>211</v>
+      </c>
+      <c r="E425" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>810</v>
+      </c>
+      <c r="B426" t="s">
+        <v>803</v>
+      </c>
+      <c r="D426" t="s">
+        <v>211</v>
+      </c>
+      <c r="E426" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>812</v>
+      </c>
+      <c r="B427" t="s">
+        <v>461</v>
+      </c>
+      <c r="D427" t="s">
+        <v>211</v>
+      </c>
+      <c r="E427" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>814</v>
+      </c>
+      <c r="B428" t="s">
+        <v>461</v>
+      </c>
+      <c r="D428" t="s">
+        <v>211</v>
+      </c>
+      <c r="E428" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>816</v>
+      </c>
+      <c r="B429" t="s">
+        <v>817</v>
+      </c>
+      <c r="D429" t="s">
+        <v>673</v>
+      </c>
+      <c r="E429" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>818</v>
+      </c>
+      <c r="B430" t="s">
+        <v>817</v>
+      </c>
+      <c r="D430" t="s">
+        <v>29</v>
+      </c>
+      <c r="E430" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>819</v>
+      </c>
+      <c r="B431" t="s">
+        <v>682</v>
+      </c>
+      <c r="D431" t="s">
+        <v>7</v>
+      </c>
+      <c r="E431" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>820</v>
+      </c>
+      <c r="B432" t="s">
+        <v>821</v>
+      </c>
+      <c r="D432" t="s">
+        <v>29</v>
+      </c>
+      <c r="E432" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>822</v>
+      </c>
+      <c r="B433" t="s">
+        <v>821</v>
+      </c>
+      <c r="D433" t="s">
+        <v>29</v>
+      </c>
+      <c r="E433" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>823</v>
+      </c>
+      <c r="B434" t="s">
+        <v>824</v>
+      </c>
+      <c r="D434" t="s">
+        <v>29</v>
+      </c>
+      <c r="E434" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>825</v>
+      </c>
+      <c r="B435" t="s">
+        <v>826</v>
+      </c>
+      <c r="D435" t="s">
+        <v>29</v>
+      </c>
+      <c r="E435" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>827</v>
+      </c>
+      <c r="B436" t="s">
+        <v>828</v>
+      </c>
+      <c r="D436">
+        <v>3.3</v>
+      </c>
+      <c r="E436" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>829</v>
+      </c>
+      <c r="B437" t="s">
+        <v>830</v>
+      </c>
+      <c r="D437">
+        <v>3.3</v>
+      </c>
+      <c r="E437" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>831</v>
+      </c>
+      <c r="B438" t="s">
+        <v>532</v>
+      </c>
+      <c r="D438" t="s">
+        <v>832</v>
+      </c>
+      <c r="E438" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>833</v>
+      </c>
+      <c r="B439" t="s">
+        <v>835</v>
+      </c>
+      <c r="D439" t="s">
+        <v>832</v>
+      </c>
+      <c r="E439" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>834</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D440" t="s">
+        <v>68</v>
+      </c>
+      <c r="E440" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>836</v>
+      </c>
+      <c r="B441" t="s">
+        <v>837</v>
+      </c>
+      <c r="D441" t="s">
+        <v>68</v>
+      </c>
+      <c r="E441" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>838</v>
+      </c>
+      <c r="B442" t="s">
+        <v>839</v>
+      </c>
+      <c r="D442" t="s">
+        <v>68</v>
+      </c>
+      <c r="E442" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>840</v>
+      </c>
+      <c r="B443" t="s">
+        <v>841</v>
+      </c>
+      <c r="D443" t="s">
+        <v>410</v>
+      </c>
+      <c r="E443" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>842</v>
+      </c>
+      <c r="B444" t="s">
+        <v>880</v>
+      </c>
+      <c r="D444" t="s">
+        <v>68</v>
+      </c>
+      <c r="E444" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>843</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="D445" t="s">
+        <v>211</v>
+      </c>
+      <c r="E445" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>845</v>
+      </c>
+      <c r="B446" t="s">
+        <v>841</v>
+      </c>
+      <c r="D446" t="s">
+        <v>211</v>
+      </c>
+      <c r="E446">
+        <v>3.9999999999999998E-6</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>846</v>
+      </c>
+      <c r="B447" t="s">
+        <v>848</v>
+      </c>
+      <c r="D447" t="s">
+        <v>90</v>
+      </c>
+      <c r="E447" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>849</v>
+      </c>
+      <c r="B448" t="s">
+        <v>848</v>
+      </c>
+      <c r="D448" t="s">
+        <v>93</v>
+      </c>
+      <c r="E448" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>850</v>
+      </c>
+      <c r="B449" t="s">
+        <v>853</v>
+      </c>
+      <c r="D449" t="s">
+        <v>851</v>
+      </c>
+      <c r="E449" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>854</v>
+      </c>
+      <c r="B450" t="s">
+        <v>853</v>
+      </c>
+      <c r="D450" t="s">
+        <v>855</v>
+      </c>
+      <c r="E450" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>857</v>
+      </c>
+      <c r="B451" t="s">
+        <v>853</v>
+      </c>
+      <c r="D451" t="s">
+        <v>492</v>
+      </c>
+      <c r="E451" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>859</v>
+      </c>
+      <c r="B452" t="s">
+        <v>853</v>
+      </c>
+      <c r="D452" t="s">
+        <v>860</v>
+      </c>
+      <c r="E452" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>862</v>
+      </c>
+      <c r="B453" t="s">
+        <v>853</v>
+      </c>
+      <c r="D453" t="s">
+        <v>863</v>
+      </c>
+      <c r="E453" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>862</v>
+      </c>
+      <c r="B454" t="s">
+        <v>853</v>
+      </c>
+      <c r="D454" t="s">
+        <v>865</v>
+      </c>
+      <c r="E454" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>867</v>
+      </c>
+      <c r="B455" t="s">
+        <v>853</v>
+      </c>
+      <c r="D455" t="s">
+        <v>868</v>
+      </c>
+      <c r="E455" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>870</v>
+      </c>
+      <c r="B456" t="s">
+        <v>853</v>
+      </c>
+      <c r="D456" t="s">
+        <v>868</v>
+      </c>
+      <c r="E456" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>872</v>
+      </c>
+      <c r="B457" t="s">
+        <v>853</v>
+      </c>
+      <c r="D457" t="s">
+        <v>174</v>
+      </c>
+      <c r="E457" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>874</v>
+      </c>
+      <c r="B458" t="s">
+        <v>853</v>
+      </c>
+      <c r="D458" t="s">
+        <v>875</v>
+      </c>
+      <c r="E458" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>877</v>
+      </c>
+      <c r="B459" t="s">
+        <v>313</v>
+      </c>
+      <c r="D459" t="s">
+        <v>878</v>
+      </c>
+      <c r="E459" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>881</v>
+      </c>
+      <c r="B460" t="s">
+        <v>853</v>
+      </c>
+      <c r="D460" t="s">
+        <v>868</v>
+      </c>
+      <c r="E460" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>883</v>
+      </c>
+      <c r="B461" t="s">
+        <v>886</v>
+      </c>
+      <c r="D461" t="s">
+        <v>884</v>
+      </c>
+      <c r="E461" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>887</v>
+      </c>
+      <c r="B462" t="s">
+        <v>886</v>
+      </c>
+      <c r="D462" t="s">
+        <v>174</v>
+      </c>
+      <c r="E462" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>889</v>
+      </c>
+      <c r="B463" t="s">
+        <v>886</v>
+      </c>
+      <c r="D463" t="s">
+        <v>884</v>
+      </c>
+      <c r="E463" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>891</v>
+      </c>
+      <c r="B464" t="s">
+        <v>893</v>
+      </c>
+      <c r="D464" t="s">
+        <v>90</v>
+      </c>
+      <c r="E464" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>894</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="D465" t="s">
+        <v>449</v>
+      </c>
+      <c r="E465">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>896</v>
+      </c>
+      <c r="B466" t="s">
+        <v>895</v>
+      </c>
+      <c r="D466" t="s">
+        <v>220</v>
+      </c>
+      <c r="E466" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>898</v>
+      </c>
+      <c r="B467" t="s">
+        <v>895</v>
+      </c>
+      <c r="D467" t="s">
+        <v>220</v>
+      </c>
+      <c r="E467" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>900</v>
+      </c>
+      <c r="B468" t="s">
+        <v>895</v>
+      </c>
+      <c r="D468" t="s">
+        <v>220</v>
+      </c>
+      <c r="E468" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>901</v>
+      </c>
+      <c r="B469" t="s">
+        <v>895</v>
+      </c>
+      <c r="D469" t="s">
+        <v>272</v>
+      </c>
+      <c r="E469" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>902</v>
+      </c>
+      <c r="B470" t="s">
+        <v>895</v>
+      </c>
+      <c r="D470" t="s">
+        <v>903</v>
+      </c>
+      <c r="E470" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>905</v>
+      </c>
+      <c r="B471" t="s">
+        <v>895</v>
+      </c>
+      <c r="D471" t="s">
+        <v>903</v>
+      </c>
+      <c r="E471" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>907</v>
+      </c>
+      <c r="B472" t="s">
+        <v>895</v>
+      </c>
+      <c r="D472" t="s">
+        <v>903</v>
+      </c>
+      <c r="E472">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>908</v>
+      </c>
+      <c r="B473" t="s">
+        <v>909</v>
+      </c>
+      <c r="D473" t="s">
+        <v>73</v>
+      </c>
+      <c r="E473" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>908</v>
+      </c>
+      <c r="B474" t="s">
+        <v>909</v>
+      </c>
+      <c r="D474" t="s">
+        <v>911</v>
+      </c>
+      <c r="E474" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>913</v>
+      </c>
+      <c r="B475" t="s">
+        <v>909</v>
+      </c>
+      <c r="D475" t="s">
+        <v>911</v>
+      </c>
+      <c r="E475" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>915</v>
+      </c>
+      <c r="B476" t="s">
+        <v>909</v>
+      </c>
+      <c r="D476" t="s">
+        <v>916</v>
+      </c>
+      <c r="E476" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>918</v>
+      </c>
+      <c r="B477" t="s">
+        <v>919</v>
+      </c>
+      <c r="D477" t="s">
+        <v>174</v>
+      </c>
+      <c r="E477" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>921</v>
+      </c>
+      <c r="B478" t="s">
+        <v>919</v>
+      </c>
+      <c r="D478" t="s">
+        <v>174</v>
+      </c>
+      <c r="E478" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>923</v>
+      </c>
+      <c r="B479" t="s">
+        <v>924</v>
+      </c>
+      <c r="D479" t="s">
+        <v>925</v>
+      </c>
+      <c r="E479" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>927</v>
+      </c>
+      <c r="B480" t="s">
+        <v>924</v>
+      </c>
+      <c r="D480" t="s">
+        <v>868</v>
+      </c>
+      <c r="E480" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>929</v>
+      </c>
+      <c r="B481" t="s">
+        <v>924</v>
+      </c>
+      <c r="D481" t="s">
+        <v>174</v>
+      </c>
+      <c r="E481" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>930</v>
+      </c>
+      <c r="B482" t="s">
+        <v>924</v>
+      </c>
+      <c r="D482" t="s">
+        <v>931</v>
+      </c>
+      <c r="E482" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>932</v>
+      </c>
+      <c r="B483" t="s">
+        <v>924</v>
+      </c>
+      <c r="D483" t="s">
+        <v>174</v>
+      </c>
+      <c r="E483" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>934</v>
+      </c>
+      <c r="B484" t="s">
+        <v>935</v>
+      </c>
+      <c r="D484" t="s">
+        <v>936</v>
+      </c>
+      <c r="E484" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>938</v>
+      </c>
+      <c r="B485" t="s">
+        <v>919</v>
+      </c>
+      <c r="D485" t="s">
+        <v>939</v>
+      </c>
+      <c r="E485" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>941</v>
+      </c>
+      <c r="B486" t="s">
+        <v>919</v>
+      </c>
+      <c r="D486" t="s">
+        <v>942</v>
+      </c>
+      <c r="E486" s="4">
+        <v>1.1970000000000001</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>943</v>
+      </c>
+      <c r="B487" t="s">
+        <v>944</v>
+      </c>
+      <c r="D487" t="s">
+        <v>945</v>
+      </c>
+      <c r="E487" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>947</v>
+      </c>
+      <c r="B488" t="s">
+        <v>919</v>
+      </c>
+      <c r="D488" t="s">
+        <v>948</v>
+      </c>
+      <c r="E488" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>950</v>
+      </c>
+      <c r="B489" t="s">
+        <v>944</v>
+      </c>
+      <c r="D489" t="s">
+        <v>948</v>
+      </c>
+      <c r="E489" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>951</v>
+      </c>
+      <c r="B490" t="s">
+        <v>952</v>
+      </c>
+      <c r="D490" t="s">
+        <v>211</v>
+      </c>
+      <c r="E490" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>954</v>
+      </c>
+      <c r="B491" t="s">
+        <v>955</v>
+      </c>
+      <c r="D491" t="s">
+        <v>211</v>
+      </c>
+      <c r="E491" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>954</v>
+      </c>
+      <c r="B492" t="s">
+        <v>955</v>
+      </c>
+      <c r="D492" t="s">
+        <v>211</v>
+      </c>
+      <c r="E492" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>954</v>
+      </c>
+      <c r="B493" t="s">
+        <v>955</v>
+      </c>
+      <c r="D493" t="s">
+        <v>211</v>
+      </c>
+      <c r="E493" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>954</v>
+      </c>
+      <c r="B494" t="s">
+        <v>955</v>
+      </c>
+      <c r="D494" t="s">
+        <v>211</v>
+      </c>
+      <c r="E494" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>960</v>
+      </c>
+      <c r="B495" t="s">
+        <v>961</v>
+      </c>
+      <c r="D495" t="s">
+        <v>722</v>
+      </c>
+      <c r="E495" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>962</v>
+      </c>
+      <c r="B496" t="s">
+        <v>961</v>
+      </c>
+      <c r="D496" t="s">
+        <v>963</v>
+      </c>
+      <c r="E496" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>964</v>
+      </c>
+      <c r="B497" t="s">
+        <v>965</v>
+      </c>
+      <c r="D497" t="s">
+        <v>30</v>
+      </c>
+      <c r="E497" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>967</v>
+      </c>
+      <c r="B498" t="s">
+        <v>961</v>
+      </c>
+      <c r="D498" t="s">
+        <v>968</v>
+      </c>
+      <c r="E498">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>969</v>
+      </c>
+      <c r="B499" t="s">
+        <v>961</v>
+      </c>
+      <c r="D499" t="s">
+        <v>968</v>
+      </c>
+      <c r="E499" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>971</v>
+      </c>
+      <c r="B500" t="s">
+        <v>961</v>
+      </c>
+      <c r="D500" t="s">
+        <v>916</v>
+      </c>
+      <c r="E500" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>973</v>
+      </c>
+      <c r="B501" t="s">
+        <v>974</v>
+      </c>
+      <c r="D501" t="s">
+        <v>975</v>
+      </c>
+      <c r="E501">
+        <v>8.3999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>976</v>
+      </c>
+      <c r="B502" t="s">
+        <v>977</v>
+      </c>
+      <c r="D502" t="s">
+        <v>978</v>
+      </c>
+      <c r="E502" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>979</v>
+      </c>
+      <c r="B503" t="s">
+        <v>977</v>
+      </c>
+      <c r="D503" t="s">
+        <v>978</v>
+      </c>
+      <c r="E503" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>980</v>
+      </c>
+      <c r="B504" t="s">
+        <v>977</v>
+      </c>
+      <c r="D504" t="s">
+        <v>978</v>
+      </c>
+      <c r="E504" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>981</v>
+      </c>
+      <c r="B505" t="s">
+        <v>977</v>
+      </c>
+      <c r="D505" t="s">
+        <v>978</v>
+      </c>
+      <c r="E505" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>982</v>
+      </c>
+      <c r="B506" t="s">
+        <v>983</v>
+      </c>
+      <c r="D506" t="s">
+        <v>984</v>
+      </c>
+      <c r="E506" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>986</v>
+      </c>
+      <c r="B507" t="s">
+        <v>983</v>
+      </c>
+      <c r="D507" t="s">
+        <v>987</v>
+      </c>
+      <c r="E507" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>989</v>
+      </c>
+      <c r="B508" t="s">
+        <v>983</v>
+      </c>
+      <c r="D508" t="s">
+        <v>90</v>
+      </c>
+      <c r="E508" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>990</v>
+      </c>
+      <c r="B509" t="s">
+        <v>983</v>
+      </c>
+      <c r="D509" t="s">
+        <v>968</v>
+      </c>
+      <c r="E509" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>992</v>
+      </c>
+      <c r="B510" t="s">
+        <v>919</v>
+      </c>
+      <c r="D510" t="s">
+        <v>993</v>
+      </c>
+      <c r="E510">
+        <v>1.367</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>994</v>
+      </c>
+      <c r="B511" t="s">
+        <v>919</v>
+      </c>
+      <c r="D511" t="s">
+        <v>995</v>
+      </c>
+      <c r="E511" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>996</v>
+      </c>
+      <c r="B512" t="s">
+        <v>919</v>
+      </c>
+      <c r="D512" t="s">
+        <v>997</v>
+      </c>
+      <c r="E512" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>998</v>
+      </c>
+      <c r="B513" t="s">
+        <v>919</v>
+      </c>
+      <c r="D513" t="s">
+        <v>987</v>
+      </c>
+      <c r="E513" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D514" t="s">
+        <v>987</v>
+      </c>
+      <c r="E514" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D515" t="s">
+        <v>987</v>
+      </c>
+      <c r="E515" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D516" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E516" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D517" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E517" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D518" t="s">
+        <v>984</v>
+      </c>
+      <c r="E518" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D519" t="s">
+        <v>90</v>
+      </c>
+      <c r="E519" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B520" t="s">
+        <v>919</v>
+      </c>
+      <c r="D520" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E520" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B521" t="s">
+        <v>919</v>
+      </c>
+      <c r="D521" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E521">
+        <v>1.1127</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B522" t="s">
+        <v>919</v>
+      </c>
+      <c r="D522" t="s">
+        <v>246</v>
+      </c>
+      <c r="E522" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D523" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E523" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B524" t="s">
+        <v>924</v>
+      </c>
+      <c r="D524" t="s">
+        <v>174</v>
+      </c>
+      <c r="E524" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B525" t="s">
+        <v>924</v>
+      </c>
+      <c r="D525" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E525" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B526" t="s">
+        <v>924</v>
+      </c>
+      <c r="D526" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E526" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B527" t="s">
+        <v>924</v>
+      </c>
+      <c r="D527" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E527" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B528" t="s">
+        <v>924</v>
+      </c>
+      <c r="D528" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E528" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B529" t="s">
+        <v>924</v>
+      </c>
+      <c r="D529" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E529" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B530" t="s">
+        <v>924</v>
+      </c>
+      <c r="D530" t="s">
+        <v>170</v>
+      </c>
+      <c r="E530" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B531" t="s">
+        <v>924</v>
+      </c>
+      <c r="D531" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E531" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B532" t="s">
+        <v>924</v>
+      </c>
+      <c r="D532" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E532" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B533" t="s">
+        <v>924</v>
+      </c>
+      <c r="D533" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E533" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B534" t="s">
+        <v>924</v>
+      </c>
+      <c r="D534" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E534" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D535" t="s">
+        <v>722</v>
+      </c>
+      <c r="E535" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D536" t="s">
+        <v>722</v>
+      </c>
+      <c r="E536">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D537" t="s">
+        <v>274</v>
+      </c>
+      <c r="E537">
+        <v>4.0599999999999997E-2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D538" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E538" t="s">
+        <v>1050</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
